--- a/data/hotels_by_city/Houston/Houston_shard_98.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_98.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="359">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56062-d124461-Reviews-Comfort_Inn_Suites_West-Katy_Texas.html</t>
   </si>
   <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Katy-Hotels-Comfort-Inn-Suites-Houston-Key-Katy.h27800.Hotel-Information?chkin=7%2F8%2F2018&amp;chkout=7%2F9%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1530298785171&amp;cancellable=false&amp;regionId=178265&amp;vip=false&amp;c=92041945-a200-4629-92f5-aa5413a24ba3&amp;mctc=9&amp;exp_dp=89.1&amp;exp_ts=1530298785731&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,961 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r573369838-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>56062</t>
+  </si>
+  <si>
+    <t>124461</t>
+  </si>
+  <si>
+    <t>573369838</t>
+  </si>
+  <si>
+    <t>04/14/2018</t>
+  </si>
+  <si>
+    <t>They made it right</t>
+  </si>
+  <si>
+    <t>When we checked in, the desk clerk was very nice but when we got to our room it was not clean and had not been made up. It also smelled funny. We went back to the front desk and the desk clerk apologized profusely. She showed us that the cleaning chart showed that room had been cleaned. She upgraded us to a suite which was clean and pleasant. The rest of our stay was uneventful. The beds were comfortable, the Wi-Fi worked well, breakfast had a lot of variety, the hot tub was nice. I would stay here again.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r572441235-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>572441235</t>
+  </si>
+  <si>
+    <t>04/10/2018</t>
+  </si>
+  <si>
+    <t>Great place to stay, Clean and inviting</t>
+  </si>
+  <si>
+    <t>Although the rooms could use a little updating, this is a clean, safe, inviting place to stay.  Hotel staff were courteous and helpful, my room and bedding were clean and fresh, the mattress was very comfortable, not hard as some reviewers have stated.  The breakfast was hot and fresh, and very good.  The coffee was even pretty good.  I'm very satisfied and will stay here again.  I used to always stay at the Best Western Plus in Katy, but its too expensive now.  The price for this hotel is reasonable and worth it.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r565522882-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>565522882</t>
+  </si>
+  <si>
+    <t>03/09/2018</t>
+  </si>
+  <si>
+    <t>Hard Beds</t>
+  </si>
+  <si>
+    <t>Upon arrival the TV wouldn't work, we were not offered our Choice membership perks!  The manager the next morning was VERY Rude....the heater stunk BAD when turned on!! maybe they need to change filters and has to of been the hardest bed yet!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r506337437-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>506337437</t>
+  </si>
+  <si>
+    <t>07/27/2017</t>
+  </si>
+  <si>
+    <t>A usual good stay</t>
+  </si>
+  <si>
+    <t>Convent, well placed with access to lots of restaurants, stores gas very close.The room was very clean and well kept, maintained and comfortable.The only downside was breakfast the 2nd day ... Got there at 7am and most everything was empty, eggs, sausage (or maybe it was supposed to be bacon), coffee, etc.  Was rather strange that there was no gravy to go with the biscuits.  Small details, but breakfast is important to me.I'll still recommend and return to this hotel.  Well done to all the staff.Good parking as well.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r491113504-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>491113504</t>
+  </si>
+  <si>
+    <t>06/06/2017</t>
+  </si>
+  <si>
+    <t>A very nice Hotel</t>
+  </si>
+  <si>
+    <t>A very nice and clean hotel, the Lady at the front desk was very sweet, My daughter thought she had booked this one to, the Lady put another room in my name, until my daughter had arrived, She went above and beyond to help us out, the rooms was very clean, and they are very nice rooms, I will stay here again!!!!</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r490135966-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>490135966</t>
+  </si>
+  <si>
+    <t>06/03/2017</t>
+  </si>
+  <si>
+    <t>A Convenient Stay</t>
+  </si>
+  <si>
+    <t>We stayed overnight for a graduation ceremony. This alternative beat driving four hours home after the celebration dinner. Here is what I liked about this Hotel. They had beds, breakfast, and was just off I-10. The room has a TV, mini fridge, desk, and chair. Linens were well stocked in the bathroom. Coffee pot was next to the TV with all the fixings.Here's what can be improved upon. The mattresses. I love a nice firm mattress, but please don't ask us to pay to sleep on bricks. I generally sleep like a baby in these hotels, but not this one. The chair in the room was dirty and worn, it needed a replacement. Stop putting ice buckets and glasses in the bathroom. That's just gross. I can't tell you how many places I go and this is where you find these items. I won't even use them if I find them there. At least the coffee pot wasn't in the bathroom. Breakfast was your typical breakfast included spread. They had sausage patties, potatoes, processed egg patties, biscuits, boiled eggs, yogurt, fruit, cereal, bread, pastries and waffles along with milk, juice, coffee, teas, and water. I wasn't picky, so I had my typical breakfast portion and that kept me until a little before lunch. The coffee was good though. I will say that.I would look elsewhere for a better mattress. Won't be staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed overnight for a graduation ceremony. This alternative beat driving four hours home after the celebration dinner. Here is what I liked about this Hotel. They had beds, breakfast, and was just off I-10. The room has a TV, mini fridge, desk, and chair. Linens were well stocked in the bathroom. Coffee pot was next to the TV with all the fixings.Here's what can be improved upon. The mattresses. I love a nice firm mattress, but please don't ask us to pay to sleep on bricks. I generally sleep like a baby in these hotels, but not this one. The chair in the room was dirty and worn, it needed a replacement. Stop putting ice buckets and glasses in the bathroom. That's just gross. I can't tell you how many places I go and this is where you find these items. I won't even use them if I find them there. At least the coffee pot wasn't in the bathroom. Breakfast was your typical breakfast included spread. They had sausage patties, potatoes, processed egg patties, biscuits, boiled eggs, yogurt, fruit, cereal, bread, pastries and waffles along with milk, juice, coffee, teas, and water. I wasn't picky, so I had my typical breakfast portion and that kept me until a little before lunch. The coffee was good though. I will say that.I would look elsewhere for a better mattress. Won't be staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r454516239-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>454516239</t>
+  </si>
+  <si>
+    <t>01/24/2017</t>
+  </si>
+  <si>
+    <t>Visit Family</t>
+  </si>
+  <si>
+    <t>Room use to be a smoking room. The smell was still obvious.  All else was very good.  Room was roomy.  Bed was very comfortable, morning breakfast was very good.  Staff was very friendly.  Will stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Guest R, Guest Relations Manager at Comfort Inn &amp; Suites West, responded to this reviewResponded February 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2017</t>
+  </si>
+  <si>
+    <t>Room use to be a smoking room. The smell was still obvious.  All else was very good.  Room was roomy.  Bed was very comfortable, morning breakfast was very good.  Staff was very friendly.  Will stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r447269668-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>447269668</t>
+  </si>
+  <si>
+    <t>12/28/2016</t>
+  </si>
+  <si>
+    <t>Wonderful place to stay!</t>
+  </si>
+  <si>
+    <t>Maybe it was because we stayed in a Quality Inn the night before, but we were very impressed with this Comfort Inn &amp; Suites.  The room was a little small, but everything was spotless, the bathroom had been re-done, the bed was comfy, and there were lots of eating places within walking distance.  The free breakfast was also great with lots of variety.  Overall, this was one of our best experiences on our 7 day trek across country.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Maybe it was because we stayed in a Quality Inn the night before, but we were very impressed with this Comfort Inn &amp; Suites.  The room was a little small, but everything was spotless, the bathroom had been re-done, the bed was comfy, and there were lots of eating places within walking distance.  The free breakfast was also great with lots of variety.  Overall, this was one of our best experiences on our 7 day trek across country.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r428113584-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>428113584</t>
+  </si>
+  <si>
+    <t>10/15/2016</t>
+  </si>
+  <si>
+    <t>Great staff</t>
+  </si>
+  <si>
+    <t>My favorite thing about staying here is the welcoming and friendly staff.  The rooms are clean, the air works well, everything you would expect. BUT, the front desk staff is wonderful.  They take the time to ask how you are doing, and actually listen to the answers.  They give great suggestions on things to see while in the area.  I would certainly stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Guest R, Guest Relations Manager at Comfort Inn &amp; Suites West, responded to this reviewResponded October 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2016</t>
+  </si>
+  <si>
+    <t>My favorite thing about staying here is the welcoming and friendly staff.  The rooms are clean, the air works well, everything you would expect. BUT, the front desk staff is wonderful.  They take the time to ask how you are doing, and actually listen to the answers.  They give great suggestions on things to see while in the area.  I would certainly stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r389446875-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>389446875</t>
+  </si>
+  <si>
+    <t>07/05/2016</t>
+  </si>
+  <si>
+    <t>Good Stay - Very Convenient</t>
+  </si>
+  <si>
+    <t>A good hotel for a reasonable rate. The room itself was excellent, but parking and access to the room was not as easy as some other hotels I've stayed at. The staff was nice enough, but seemed a little overwhelmed at times. Breakfast was better than most I've stayed at, so I will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Guest R, Guest Relations Manager at Comfort Inn &amp; Suites West, responded to this reviewResponded July 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2016</t>
+  </si>
+  <si>
+    <t>A good hotel for a reasonable rate. The room itself was excellent, but parking and access to the room was not as easy as some other hotels I've stayed at. The staff was nice enough, but seemed a little overwhelmed at times. Breakfast was better than most I've stayed at, so I will stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r389410007-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>389410007</t>
+  </si>
+  <si>
+    <t>Quiet room, great wifi</t>
+  </si>
+  <si>
+    <t>Pleasant stay. We were in room 101 which was toward the end of the hallway and very quiet. the only minor inconvenience was parking -- there was a nearby entrance but only three parking spots and they were always full. Room was a reasonable size, Internet access was definitely better than we have often seen in a hotel. The hot breakfast choices varied every day and were all pretty good. Access was convenient from all directions and there are many choices for retaurants within a mile or so. We would definitely stay here again when in the area. MoreShow less</t>
+  </si>
+  <si>
+    <t>Pleasant stay. We were in room 101 which was toward the end of the hallway and very quiet. the only minor inconvenience was parking -- there was a nearby entrance but only three parking spots and they were always full. Room was a reasonable size, Internet access was definitely better than we have often seen in a hotel. The hot breakfast choices varied every day and were all pretty good. Access was convenient from all directions and there are many choices for retaurants within a mile or so. We would definitely stay here again when in the area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r384345118-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>384345118</t>
+  </si>
+  <si>
+    <t>06/20/2016</t>
+  </si>
+  <si>
+    <t>Double charged and ALL managers are MIA going on 5 months.</t>
+  </si>
+  <si>
+    <t>I booked a room for this hotel 1/13/16.  I booked and prepaid online.  When I printed my reservation information, I noticed I had inadvertently booked a smoking room.  I called immediately to change the room to a non-smoking room.  The person I spoke with at the front desk informed me that I had booked a smoking AND a non-smoking room.  She cancelled the smoking room for me.  So my credit card had been charged twice (once per room); but she issued a credit for the smoking room.  
+When I arrived 2/26 for my two night stay, my card was charged again even though I informed the person at the front desk that the room had been prepaid.  
+I waited until I returned home to make sure I was correct and that I had in fact been charged for the room at the time of booking.  I had been charged twice, credited once and then charged again at check-in.  
+I tried calling the hotel and the manager has never been available.  I left a voice mail message once and every time after that the voice mail box was full and unable to accept a message.  
+I disputed the charge on my credit card and it was removed.  In June, I received a letter from my credit card along with a printout from the hotel stating that the reservation was non-refundable at the time of booking and a confirmation that I had...I booked a room for this hotel 1/13/16.  I booked and prepaid online.  When I printed my reservation information, I noticed I had inadvertently booked a smoking room.  I called immediately to change the room to a non-smoking room.  The person I spoke with at the front desk informed me that I had booked a smoking AND a non-smoking room.  She cancelled the smoking room for me.  So my credit card had been charged twice (once per room); but she issued a credit for the smoking room.  When I arrived 2/26 for my two night stay, my card was charged again even though I informed the person at the front desk that the room had been prepaid.  I waited until I returned home to make sure I was correct and that I had in fact been charged for the room at the time of booking.  I had been charged twice, credited once and then charged again at check-in.  I tried calling the hotel and the manager has never been available.  I left a voice mail message once and every time after that the voice mail box was full and unable to accept a message.  I disputed the charge on my credit card and it was removed.  In June, I received a letter from my credit card along with a printout from the hotel stating that the reservation was non-refundable at the time of booking and a confirmation that I had stayed in two rooms for two nights.  I have since tried to contact the manager, the customer service manager, the general manager and any other person with any kind of authority to correct this issue.  I've called the corporate office twice and held for over 35 minutes each time in an attempt to get this resolved with the help of the corporate office.  Both times I was told a manager from the hotel would correct the issue and get back with me within 72 hours.  It's been 11 days since the first time this claim was made.  The managers still haven't returned a call.  The front desk clerks continue to be polite; but completely incompetent with no authority to correct the error.This is not my first stay at a Comfort Inn.  I am a member of their frequent stay program; but I have never had this kind of problem.The corporate customer service representatives are friendly and they try to be helpful; but they are at the mercy of the incompetent management of this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Guest R, Guest Relations Manager at Comfort Inn &amp; Suites West, responded to this reviewResponded July 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2016</t>
+  </si>
+  <si>
+    <t>I booked a room for this hotel 1/13/16.  I booked and prepaid online.  When I printed my reservation information, I noticed I had inadvertently booked a smoking room.  I called immediately to change the room to a non-smoking room.  The person I spoke with at the front desk informed me that I had booked a smoking AND a non-smoking room.  She cancelled the smoking room for me.  So my credit card had been charged twice (once per room); but she issued a credit for the smoking room.  
+When I arrived 2/26 for my two night stay, my card was charged again even though I informed the person at the front desk that the room had been prepaid.  
+I waited until I returned home to make sure I was correct and that I had in fact been charged for the room at the time of booking.  I had been charged twice, credited once and then charged again at check-in.  
+I tried calling the hotel and the manager has never been available.  I left a voice mail message once and every time after that the voice mail box was full and unable to accept a message.  
+I disputed the charge on my credit card and it was removed.  In June, I received a letter from my credit card along with a printout from the hotel stating that the reservation was non-refundable at the time of booking and a confirmation that I had...I booked a room for this hotel 1/13/16.  I booked and prepaid online.  When I printed my reservation information, I noticed I had inadvertently booked a smoking room.  I called immediately to change the room to a non-smoking room.  The person I spoke with at the front desk informed me that I had booked a smoking AND a non-smoking room.  She cancelled the smoking room for me.  So my credit card had been charged twice (once per room); but she issued a credit for the smoking room.  When I arrived 2/26 for my two night stay, my card was charged again even though I informed the person at the front desk that the room had been prepaid.  I waited until I returned home to make sure I was correct and that I had in fact been charged for the room at the time of booking.  I had been charged twice, credited once and then charged again at check-in.  I tried calling the hotel and the manager has never been available.  I left a voice mail message once and every time after that the voice mail box was full and unable to accept a message.  I disputed the charge on my credit card and it was removed.  In June, I received a letter from my credit card along with a printout from the hotel stating that the reservation was non-refundable at the time of booking and a confirmation that I had stayed in two rooms for two nights.  I have since tried to contact the manager, the customer service manager, the general manager and any other person with any kind of authority to correct this issue.  I've called the corporate office twice and held for over 35 minutes each time in an attempt to get this resolved with the help of the corporate office.  Both times I was told a manager from the hotel would correct the issue and get back with me within 72 hours.  It's been 11 days since the first time this claim was made.  The managers still haven't returned a call.  The front desk clerks continue to be polite; but completely incompetent with no authority to correct the error.This is not my first stay at a Comfort Inn.  I am a member of their frequent stay program; but I have never had this kind of problem.The corporate customer service representatives are friendly and they try to be helpful; but they are at the mercy of the incompetent management of this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r354565063-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>354565063</t>
+  </si>
+  <si>
+    <t>03/11/2016</t>
+  </si>
+  <si>
+    <t>Unable to get the manager to call me back</t>
+  </si>
+  <si>
+    <t>We had some clothing damaged on the 20th of February 2016, due to them staining their furniture the day before they put us in the room.  They wanted us to leave the clothing with them and they would have them drycleaned.  I have yet to hear from Nancy Hernandez or receive my clothing back cleaned.  I have left over 10 messages, still no call back.  I am told by the front desk that she is in and out of the office.  They refuse to let me know who her boss is, I just get transfered to her voicemail.  I have filed a complaint with Choice hotels.  It has become beyond crazy.MoreShow less</t>
+  </si>
+  <si>
+    <t>Guest R, Guest Relations Manager at Comfort Inn &amp; Suites West, responded to this reviewResponded April 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2016</t>
+  </si>
+  <si>
+    <t>We had some clothing damaged on the 20th of February 2016, due to them staining their furniture the day before they put us in the room.  They wanted us to leave the clothing with them and they would have them drycleaned.  I have yet to hear from Nancy Hernandez or receive my clothing back cleaned.  I have left over 10 messages, still no call back.  I am told by the front desk that she is in and out of the office.  They refuse to let me know who her boss is, I just get transfered to her voicemail.  I have filed a complaint with Choice hotels.  It has become beyond crazy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r350405257-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>350405257</t>
+  </si>
+  <si>
+    <t>02/23/2016</t>
+  </si>
+  <si>
+    <t>Great bed good nights sleep</t>
+  </si>
+  <si>
+    <t>Great room, great bed, good pillows. Yucky breakfast. everything was fine except breakfast. Tasted like cheese whiz in the omelet, the bacon was hard as leather couldn't chew it. So stay for a great nights sleep but skip breakfast and go to McDonalds next door.MoreShow less</t>
+  </si>
+  <si>
+    <t>Guest R, Guest Relations Manager at Comfort Inn &amp; Suites West, responded to this reviewResponded February 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2016</t>
+  </si>
+  <si>
+    <t>Great room, great bed, good pillows. Yucky breakfast. everything was fine except breakfast. Tasted like cheese whiz in the omelet, the bacon was hard as leather couldn't chew it. So stay for a great nights sleep but skip breakfast and go to McDonalds next door.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r327002835-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>327002835</t>
+  </si>
+  <si>
+    <t>11/15/2015</t>
+  </si>
+  <si>
+    <t>Friendly, cozy, and convenient.</t>
+  </si>
+  <si>
+    <t>I stayed at the Comfort for three nights last week and I could not have picked a better hotel.From the day I made my reservation,I received nothing but great service from their helpful, polite and highly trained  staff.Room was very lovely,clean,and super comfortable and the lobby was very relaxing with calm atmosphere.I highly recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>Guest R, Guest Relations Manager at Comfort Inn &amp; Suites West, responded to this reviewResponded November 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 20, 2015</t>
+  </si>
+  <si>
+    <t>I stayed at the Comfort for three nights last week and I could not have picked a better hotel.From the day I made my reservation,I received nothing but great service from their helpful, polite and highly trained  staff.Room was very lovely,clean,and super comfortable and the lobby was very relaxing with calm atmosphere.I highly recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r311433308-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>311433308</t>
+  </si>
+  <si>
+    <t>09/17/2015</t>
+  </si>
+  <si>
+    <t>Wonderful stay</t>
+  </si>
+  <si>
+    <t>I have to say my stay here was great. It was clean and  really comfortable bed! Best night sleep! The stuff was super friendly and helpful. I recommend this hotel to any one staying in the Katy area!!!! MoreShow less</t>
+  </si>
+  <si>
+    <t>Guest R, Manager at Comfort Inn &amp; Suites West, responded to this reviewResponded September 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2015</t>
+  </si>
+  <si>
+    <t>I have to say my stay here was great. It was clean and  really comfortable bed! Best night sleep! The stuff was super friendly and helpful. I recommend this hotel to any one staying in the Katy area!!!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r311431118-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>311431118</t>
+  </si>
+  <si>
+    <t>Hotel stay</t>
+  </si>
+  <si>
+    <t>The staff were awesome.  Great Wifi.  Wonderful indoor pool.  Lots of cable channels.Beautiful accommodations.  Extremely clean rooms.  Cleaning service technicians very thorough.  Wake up service punctual.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>The staff were awesome.  Great Wifi.  Wonderful indoor pool.  Lots of cable channels.Beautiful accommodations.  Extremely clean rooms.  Cleaning service technicians very thorough.  Wake up service punctual.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r310712031-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>310712031</t>
+  </si>
+  <si>
+    <t>09/15/2015</t>
+  </si>
+  <si>
+    <t>Wonderful stay and excellent staff</t>
+  </si>
+  <si>
+    <t>Me and my husband had a wonderful weekend at this hotel . The room was very comfortable and clean. The staff was very helpful and friendly. We really enjoyed their hot breakfast in the morning and the indoor pool. Will definitely stay here anytime in Katy. Great location and price!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Me and my husband had a wonderful weekend at this hotel . The room was very comfortable and clean. The staff was very helpful and friendly. We really enjoyed their hot breakfast in the morning and the indoor pool. Will definitely stay here anytime in Katy. Great location and price!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r303270480-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>303270480</t>
+  </si>
+  <si>
+    <t>08/25/2015</t>
+  </si>
+  <si>
+    <t>Fantastic Renovation</t>
+  </si>
+  <si>
+    <t>I Stayed at this hotel last weekend with my family, the room was clean, with new furniture and paint,  bed was great and comfortable  breakfast was very good with lots of choices(specially for my kids), if you looking for indoor swimming pool this hotel have  the best, there are lots of good restaurants near this area. high speed internet connection, I would stay again here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>I Stayed at this hotel last weekend with my family, the room was clean, with new furniture and paint,  bed was great and comfortable  breakfast was very good with lots of choices(specially for my kids), if you looking for indoor swimming pool this hotel have  the best, there are lots of good restaurants near this area. high speed internet connection, I would stay again here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r296949894-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>296949894</t>
+  </si>
+  <si>
+    <t>08/08/2015</t>
+  </si>
+  <si>
+    <t>Comfortable enough and good internet</t>
+  </si>
+  <si>
+    <t>Had to stay In hotel waiting to close on a house this hotel is older but comfortable enough. Best of all was the great internet connection for the kids. Good thing because the pool was indoors and way too cold to enjoy. Over all good stay. Cleaning could be better found food in fridge and a tiny spider on the bed but it is Texas so I guess that happens.MoreShow less</t>
+  </si>
+  <si>
+    <t>Guest R, Guest Relations Manager at Comfort Inn &amp; Suites West, responded to this reviewResponded November 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 4, 2015</t>
+  </si>
+  <si>
+    <t>Had to stay In hotel waiting to close on a house this hotel is older but comfortable enough. Best of all was the great internet connection for the kids. Good thing because the pool was indoors and way too cold to enjoy. Over all good stay. Cleaning could be better found food in fridge and a tiny spider on the bed but it is Texas so I guess that happens.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r288046362-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>288046362</t>
+  </si>
+  <si>
+    <t>07/11/2015</t>
+  </si>
+  <si>
+    <t>Just OK for the price</t>
+  </si>
+  <si>
+    <t>The internet did not work. The lady at desk said she called 2 days ago and they have not come to fix it yet. Pool was really cold. Hot tub was in a weird little outside room with 10 foot walls with no roof that could only be accessed from the pool room. An electric plug in our room did not have a cover on it. "Picture below" The hotel was fairly clean but needs some updates &amp; maintenance. Lady at the front desk was not well versed on checking people in and how the choice rewards program worked. There was a stain on the wall of who knows what. "Picture below"Beds were comfortable. The room was clean except the things mentioned above. The price was high for what you get. $125 a night.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Guest R, Guest Relations Manager at Comfort Inn &amp; Suites West, responded to this reviewResponded September 29, 2015</t>
+  </si>
+  <si>
+    <t>The internet did not work. The lady at desk said she called 2 days ago and they have not come to fix it yet. Pool was really cold. Hot tub was in a weird little outside room with 10 foot walls with no roof that could only be accessed from the pool room. An electric plug in our room did not have a cover on it. "Picture below" The hotel was fairly clean but needs some updates &amp; maintenance. Lady at the front desk was not well versed on checking people in and how the choice rewards program worked. There was a stain on the wall of who knows what. "Picture below"Beds were comfortable. The room was clean except the things mentioned above. The price was high for what you get. $125 a night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r221063689-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>221063689</t>
+  </si>
+  <si>
+    <t>08/11/2014</t>
+  </si>
+  <si>
+    <t>Jewel of Comfort Suites</t>
+  </si>
+  <si>
+    <t>My wife and I stay at Comfort Suites as we travel. This particular Comfort Suite is only 2 1/2  years old and is the very best we have ever encountered. From the moment we stepped into the lobby we felt as if we were in a 5 star facility. The counter staff was superb, The room was more than we expected and the breakfast area was more like a friendly small restaurant rather than just a room to quickly eat to make room for other guests. This is a top of the line in Comfort Suites and a mark for all others to obtain. I will mark this as a favorite hotel on my Choices Previleges page.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>My wife and I stay at Comfort Suites as we travel. This particular Comfort Suite is only 2 1/2  years old and is the very best we have ever encountered. From the moment we stepped into the lobby we felt as if we were in a 5 star facility. The counter staff was superb, The room was more than we expected and the breakfast area was more like a friendly small restaurant rather than just a room to quickly eat to make room for other guests. This is a top of the line in Comfort Suites and a mark for all others to obtain. I will mark this as a favorite hotel on my Choices Previleges page.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r212722002-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>212722002</t>
+  </si>
+  <si>
+    <t>06/29/2014</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Even though my room had not yet been cleaned and I had to wait in the lobby, I still give this hotel 4 stars. The hotel lobby is really nice and the staff were friendly and the front desk clerk helped me bring my luggage to the room. The bed was very comfortable and the room was dark and quiet. This is a plus for me as I am a light sleeper. Even though the pool was very cold, the hot tub was just right.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r199306011-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>199306011</t>
+  </si>
+  <si>
+    <t>03/30/2014</t>
+  </si>
+  <si>
+    <t>Nice for the money</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We came here to visit my son and new granddaughter. We spent 9 days here and they were excellent.  Nice breakfast and rooms kept clean. Hotel staff very nice and professional.  I have not one thing to say bad about this hotel.. </t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r186023157-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>186023157</t>
+  </si>
+  <si>
+    <t>11/26/2013</t>
+  </si>
+  <si>
+    <t>Meh</t>
+  </si>
+  <si>
+    <t>A forgettable hotel.  It's plain, doesn't smell bad, but doesn't smell good.  The beds are okay.  Everything about it is okay at best and poor at worst.  There are plenty of better options in the area.  There's no reason to stay here again unless you are scrambling for lodging at the last moment.</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r177310570-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>177310570</t>
+  </si>
+  <si>
+    <t>09/15/2013</t>
+  </si>
+  <si>
+    <t>Moldy &amp; Bad Customer Service</t>
+  </si>
+  <si>
+    <t>I called a few days to make my reservation due to a last minute trip into Katy. As we drove up we saw the iron fence and I thought oh no we are in the ghetto . Yes I said it. The ghetto. Then I walked in and it was exactly as I envisioned after seeing the iron gates. The rooms are old, the light fixtures in bathroom were about 20 years old and  had mold and dirt smudged in it. The air conditioner was a plus, it worked well. The front desk customer service reps for my stay were all confused, in a daze and were never sure how to handle a question. I didn't eat breakfast since I didn't trust them. I wish we could have moved to another hotel but we didn't have time since we arrived at 6:00pm/ This hotel chain as I know it is not pet friendly so that was a problem for us as well. I also left a brand new outfit in a shopping bag in my room and when I realized it, I called back they said they didn't have it.  Of course they didn't so $32.00 later  plus the cost of the room - I am out over $150.00 bucks . I will never stay at this place again, I recommend they train their employees on customer service so they can have a higher return on repeat business, I also...I called a few days to make my reservation due to a last minute trip into Katy. As we drove up we saw the iron fence and I thought oh no we are in the ghetto . Yes I said it. The ghetto. Then I walked in and it was exactly as I envisioned after seeing the iron gates. The rooms are old, the light fixtures in bathroom were about 20 years old and  had mold and dirt smudged in it. The air conditioner was a plus, it worked well. The front desk customer service reps for my stay were all confused, in a daze and were never sure how to handle a question. I didn't eat breakfast since I didn't trust them. I wish we could have moved to another hotel but we didn't have time since we arrived at 6:00pm/ This hotel chain as I know it is not pet friendly so that was a problem for us as well. I also left a brand new outfit in a shopping bag in my room and when I realized it, I called back they said they didn't have it.  Of course they didn't so $32.00 later  plus the cost of the room - I am out over $150.00 bucks . I will never stay at this place again, I recommend they train their employees on customer service so they can have a higher return on repeat business, I also recommend they do a complete cleaning and update on the rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>I called a few days to make my reservation due to a last minute trip into Katy. As we drove up we saw the iron fence and I thought oh no we are in the ghetto . Yes I said it. The ghetto. Then I walked in and it was exactly as I envisioned after seeing the iron gates. The rooms are old, the light fixtures in bathroom were about 20 years old and  had mold and dirt smudged in it. The air conditioner was a plus, it worked well. The front desk customer service reps for my stay were all confused, in a daze and were never sure how to handle a question. I didn't eat breakfast since I didn't trust them. I wish we could have moved to another hotel but we didn't have time since we arrived at 6:00pm/ This hotel chain as I know it is not pet friendly so that was a problem for us as well. I also left a brand new outfit in a shopping bag in my room and when I realized it, I called back they said they didn't have it.  Of course they didn't so $32.00 later  plus the cost of the room - I am out over $150.00 bucks . I will never stay at this place again, I recommend they train their employees on customer service so they can have a higher return on repeat business, I also...I called a few days to make my reservation due to a last minute trip into Katy. As we drove up we saw the iron fence and I thought oh no we are in the ghetto . Yes I said it. The ghetto. Then I walked in and it was exactly as I envisioned after seeing the iron gates. The rooms are old, the light fixtures in bathroom were about 20 years old and  had mold and dirt smudged in it. The air conditioner was a plus, it worked well. The front desk customer service reps for my stay were all confused, in a daze and were never sure how to handle a question. I didn't eat breakfast since I didn't trust them. I wish we could have moved to another hotel but we didn't have time since we arrived at 6:00pm/ This hotel chain as I know it is not pet friendly so that was a problem for us as well. I also left a brand new outfit in a shopping bag in my room and when I realized it, I called back they said they didn't have it.  Of course they didn't so $32.00 later  plus the cost of the room - I am out over $150.00 bucks . I will never stay at this place again, I recommend they train their employees on customer service so they can have a higher return on repeat business, I also recommend they do a complete cleaning and update on the rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r172650892-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>172650892</t>
+  </si>
+  <si>
+    <t>08/17/2013</t>
+  </si>
+  <si>
+    <t>Regretted staying here from the moment I took my shoes off.</t>
+  </si>
+  <si>
+    <t>Needed a hotel close to a family member that was a little more than the bare minimum so I went with this one.  The outside looked okay and the lobby is nice too.  The front desk clerks were nice enough but obviously didn't know what they were doing.  I was told that my card would have a $50 hold on it for incidentals (in case we take anything etc.) Well instead of just charging me the 3 nights and the $50, I was charged $309 and $154 ($50 incidental each night)!
+I thought okay, it was a mistake. But then we had to change rooms the first night because our tub didn't drain until the next morning, a loud banging/creaking noise in the next room ( front desk said they heard it downstairs too) and sticky carpets. changed rooms and there were sticky carpets. I'm guessing all the rooms are like that. So after the second night I decided to check out early and stay with another family member over 30 minutes away rather than pay for this. Got a call about an hour after I left.  Front desk said he was double checking that I checked out with him (which I did,  I complained about the $154 charge,  which he and another lady said the computer must have done it and they don't know why they would happen). I asked if there was a problem and he said no,...Needed a hotel close to a family member that was a little more than the bare minimum so I went with this one.  The outside looked okay and the lobby is nice too.  The front desk clerks were nice enough but obviously didn't know what they were doing.  I was told that my card would have a $50 hold on it for incidentals (in case we take anything etc.) Well instead of just charging me the 3 nights and the $50, I was charged $309 and $154 ($50 incidental each night)!I thought okay, it was a mistake. But then we had to change rooms the first night because our tub didn't drain until the next morning, a loud banging/creaking noise in the next room ( front desk said they heard it downstairs too) and sticky carpets. changed rooms and there were sticky carpets. I'm guessing all the rooms are like that. So after the second night I decided to check out early and stay with another family member over 30 minutes away rather than pay for this. Got a call about an hour after I left.  Front desk said he was double checking that I checked out with him (which I did,  I complained about the $154 charge,  which he and another lady said the computer must have done it and they don't know why they would happen). I asked if there was a problem and he said no,  it was on his end. A few hours later, I see not only the same charge for the 3 nights instead of only 2, and the $154 over charge for the incidental, I see a SECOND charge of $154!!! I was charged more for incidentals than the actually room for 3 nights! My husband called and he said they were rude and just said the hold would be released in a few business days. And that there was nothing they could do. Since this happened yesterday,  we are just waiting to see if it clears.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Needed a hotel close to a family member that was a little more than the bare minimum so I went with this one.  The outside looked okay and the lobby is nice too.  The front desk clerks were nice enough but obviously didn't know what they were doing.  I was told that my card would have a $50 hold on it for incidentals (in case we take anything etc.) Well instead of just charging me the 3 nights and the $50, I was charged $309 and $154 ($50 incidental each night)!
+I thought okay, it was a mistake. But then we had to change rooms the first night because our tub didn't drain until the next morning, a loud banging/creaking noise in the next room ( front desk said they heard it downstairs too) and sticky carpets. changed rooms and there were sticky carpets. I'm guessing all the rooms are like that. So after the second night I decided to check out early and stay with another family member over 30 minutes away rather than pay for this. Got a call about an hour after I left.  Front desk said he was double checking that I checked out with him (which I did,  I complained about the $154 charge,  which he and another lady said the computer must have done it and they don't know why they would happen). I asked if there was a problem and he said no,...Needed a hotel close to a family member that was a little more than the bare minimum so I went with this one.  The outside looked okay and the lobby is nice too.  The front desk clerks were nice enough but obviously didn't know what they were doing.  I was told that my card would have a $50 hold on it for incidentals (in case we take anything etc.) Well instead of just charging me the 3 nights and the $50, I was charged $309 and $154 ($50 incidental each night)!I thought okay, it was a mistake. But then we had to change rooms the first night because our tub didn't drain until the next morning, a loud banging/creaking noise in the next room ( front desk said they heard it downstairs too) and sticky carpets. changed rooms and there were sticky carpets. I'm guessing all the rooms are like that. So after the second night I decided to check out early and stay with another family member over 30 minutes away rather than pay for this. Got a call about an hour after I left.  Front desk said he was double checking that I checked out with him (which I did,  I complained about the $154 charge,  which he and another lady said the computer must have done it and they don't know why they would happen). I asked if there was a problem and he said no,  it was on his end. A few hours later, I see not only the same charge for the 3 nights instead of only 2, and the $154 over charge for the incidental, I see a SECOND charge of $154!!! I was charged more for incidentals than the actually room for 3 nights! My husband called and he said they were rude and just said the hold would be released in a few business days. And that there was nothing they could do. Since this happened yesterday,  we are just waiting to see if it clears.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r144613422-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>144613422</t>
+  </si>
+  <si>
+    <t>11/05/2012</t>
+  </si>
+  <si>
+    <t>You won't be disappointed</t>
+  </si>
+  <si>
+    <t>Needed a place to stay overnight in an emergency.  We were accommodated immediately and the front desk personel offered additional personal assistance to my wife.  We have stayed at other Comfort Inns and Suites around the south and have never been disappointed.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r144189283-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>144189283</t>
+  </si>
+  <si>
+    <t>10/31/2012</t>
+  </si>
+  <si>
+    <t>Brand new gem</t>
+  </si>
+  <si>
+    <t>Brand new (January 2012).  Great check in, polite, efficient, very helpful and accommodating.  Our room was on the first floor near the lobby, yet very quiet. We were on the side away from the freeway, but I really didn't notice any freeway noise anywhere.  The room was very large.  There's a pony wall separating the sleeping area from a sitting/reading area. Beds were very comfy.   Both refrigerator and microwave in room.  Breakfast was typical to all Choice hotels and the other brand (Hampton Inns).  Nicely presented. Not cooked to order but plenty of choices and items were replenished as needed. Would definitely stay here again. Very convenient location to shopping.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Brand new (January 2012).  Great check in, polite, efficient, very helpful and accommodating.  Our room was on the first floor near the lobby, yet very quiet. We were on the side away from the freeway, but I really didn't notice any freeway noise anywhere.  The room was very large.  There's a pony wall separating the sleeping area from a sitting/reading area. Beds were very comfy.   Both refrigerator and microwave in room.  Breakfast was typical to all Choice hotels and the other brand (Hampton Inns).  Nicely presented. Not cooked to order but plenty of choices and items were replenished as needed. Would definitely stay here again. Very convenient location to shopping.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r144075138-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>144075138</t>
+  </si>
+  <si>
+    <t>10/30/2012</t>
+  </si>
+  <si>
+    <t>Great Place to Stay</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at this Comfort Inn for one week while visiting our daughter, who had moved to Katy just two months before our visit. The front desk receptionist, Nancy, was so helpful. The staff was always ready to help if needed. Good size pool and hot tub. The king-size bed was extremely comfortable. When visiting Katy again, we will definitely stay here.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r140647567-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>140647567</t>
+  </si>
+  <si>
+    <t>09/18/2012</t>
+  </si>
+  <si>
+    <t>Great location, Great place, Great overall</t>
+  </si>
+  <si>
+    <t>I had an early meeting in Katy and decided to stay in the area.  I stayed at the Comfort, which turned out to be a great property.  I was able to get a really good rate that included a hot breakfast.  The beds were extremely comfortable, the staff was awesome and the location was very convenient right next to I-10.  Being a choice member they gave me water and chips at check in. I Would recommend to everyone!</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r140513621-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>140513621</t>
+  </si>
+  <si>
+    <t>09/17/2012</t>
+  </si>
+  <si>
+    <t>Excellent stop right off Rt 10</t>
+  </si>
+  <si>
+    <t>We stayed one night in the Comfort Inn &amp; Suites West as we were in Katy for a family wedding. The rooms were very nice, seemed new in fact. Bed was very comfortable and the staff was very accommodating. I recommended this to our family for their next wedding coming up in February for reserving a block of rooms for out of town guests. Highly recommend.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r132389196-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>132389196</t>
+  </si>
+  <si>
+    <t>06/20/2012</t>
+  </si>
+  <si>
+    <t>Dissatisfied</t>
+  </si>
+  <si>
+    <t>Was traveling in Texas. We decided to stay at this Comfort Inn because it was convenient to Interstate 10W in Katy. If you like being able to check your email, browse the internet, etc. with your electronic device then don't stay here.  We had a room middle way down the hall from the reception desk.  We were unable to get access to the WI FI in the room during our stay.  We had to go down the hall to the reception area and sit there to use the Internet.  The manager told us they knew it was a problem with the rooms further down the hall from us but they didn't know our room was affected.  He offered to change our room but we had already unpacked our luggage/cooler and didn't like the inconvenience of repacking and moving. Also, the shower tile had obvious mold in the grout.  Not a good experience for us. We were disappointed.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>Was traveling in Texas. We decided to stay at this Comfort Inn because it was convenient to Interstate 10W in Katy. If you like being able to check your email, browse the internet, etc. with your electronic device then don't stay here.  We had a room middle way down the hall from the reception desk.  We were unable to get access to the WI FI in the room during our stay.  We had to go down the hall to the reception area and sit there to use the Internet.  The manager told us they knew it was a problem with the rooms further down the hall from us but they didn't know our room was affected.  He offered to change our room but we had already unpacked our luggage/cooler and didn't like the inconvenience of repacking and moving. Also, the shower tile had obvious mold in the grout.  Not a good experience for us. We were disappointed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r120614890-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>120614890</t>
+  </si>
+  <si>
+    <t>11/15/2011</t>
+  </si>
+  <si>
+    <t>Adequate At Best</t>
+  </si>
+  <si>
+    <t>I stayed 2 nights at the Comfort Inn &amp; Suites while attending a horse show at the Great Southwest Equestrian Center, The hotel is conveniently located to the equestrian center as well as numerous restaurants. Unfortunately, its location is the hotel's best feature. I've stayed at a number of Comfort Inns, and this location was perhaps the worst! The room was smaller than most Comfort Inns I have stayed at, and while the carpet was fairly new, it appeared cheap. The furniture in the room was also cheap looking and flimsy. The TV wasn't a flat screen and the screen was relatively small, plus the TV didn't rotate. The rooms weren't well insulated, I could hear doors shutting down the hall throughout the night. Most disturbing, I found a bug on the bedding. Breakfast was the typical Comfort Inn fare. I won't stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>I stayed 2 nights at the Comfort Inn &amp; Suites while attending a horse show at the Great Southwest Equestrian Center, The hotel is conveniently located to the equestrian center as well as numerous restaurants. Unfortunately, its location is the hotel's best feature. I've stayed at a number of Comfort Inns, and this location was perhaps the worst! The room was smaller than most Comfort Inns I have stayed at, and while the carpet was fairly new, it appeared cheap. The furniture in the room was also cheap looking and flimsy. The TV wasn't a flat screen and the screen was relatively small, plus the TV didn't rotate. The rooms weren't well insulated, I could hear doors shutting down the hall throughout the night. Most disturbing, I found a bug on the bedding. Breakfast was the typical Comfort Inn fare. I won't stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r115164379-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>115164379</t>
+  </si>
+  <si>
+    <t>07/08/2011</t>
+  </si>
+  <si>
+    <t>Great experience for under $100</t>
+  </si>
+  <si>
+    <t>We stayed one night at the Comfort Inn-West in Katy on our cross-country vacation with our two young children and had a very positive experience.  The hotel was easy to access from I-10.  The lobby  was attractive, and the decor of the room was very updated and pleasant.  No matter what type of hotel we are staying in, I always wipe down surfaces with Clorox wipes and thoroughly check sheets and mattresses as soon as we arrive.  I found the Comfort Inn-West to be very clean and the beds were comfortable as well.  The shower pressure was good, Internet worked well, and the complimentary breakfast was located in a pleasant dining area off of the lobby.  The dining area was very clean and the selection was good--the waffles were even shaped like Texas, which my kids loved!  Breakfast was served till 10, and checkout was at 12.  There were washing machines available for guests, too.My only complaint about our room is that we had a non-smoking room but it had a residual cigarette smoke smell.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>We stayed one night at the Comfort Inn-West in Katy on our cross-country vacation with our two young children and had a very positive experience.  The hotel was easy to access from I-10.  The lobby  was attractive, and the decor of the room was very updated and pleasant.  No matter what type of hotel we are staying in, I always wipe down surfaces with Clorox wipes and thoroughly check sheets and mattresses as soon as we arrive.  I found the Comfort Inn-West to be very clean and the beds were comfortable as well.  The shower pressure was good, Internet worked well, and the complimentary breakfast was located in a pleasant dining area off of the lobby.  The dining area was very clean and the selection was good--the waffles were even shaped like Texas, which my kids loved!  Breakfast was served till 10, and checkout was at 12.  There were washing machines available for guests, too.My only complaint about our room is that we had a non-smoking room but it had a residual cigarette smoke smell.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r114683803-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>114683803</t>
+  </si>
+  <si>
+    <t>06/23/2011</t>
+  </si>
+  <si>
+    <t>Excellent Service</t>
+  </si>
+  <si>
+    <t>My husband and I (along with four friends) had the opportunity to stay in this hotel during the National Senior Games competition in Houston/Katy in mid June 2011.  The location was excellent for us, as his competitions were located in Katy and Fulshear; meanwhile, it was a very easy drive into downtown Houston and the museum district for me.  Our room was clean and comfortable and had free high-speed wireless Internet access.  The continental breakfast was good, with numerous selections.  Those reasons alone would be enough for me to stay there again.  The real clincher, though, is the staff.  Everyone we me while we were there was knowledgeable, friendly, courteous.  Customer service is top notch.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I (along with four friends) had the opportunity to stay in this hotel during the National Senior Games competition in Houston/Katy in mid June 2011.  The location was excellent for us, as his competitions were located in Katy and Fulshear; meanwhile, it was a very easy drive into downtown Houston and the museum district for me.  Our room was clean and comfortable and had free high-speed wireless Internet access.  The continental breakfast was good, with numerous selections.  Those reasons alone would be enough for me to stay there again.  The real clincher, though, is the staff.  Everyone we me while we were there was knowledgeable, friendly, courteous.  Customer service is top notch.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r81405676-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>81405676</t>
+  </si>
+  <si>
+    <t>09/28/2010</t>
+  </si>
+  <si>
+    <t>Great Hotel with Great Customer Service!</t>
+  </si>
+  <si>
+    <t>I travel quite a bit for work and I am in hotels for most of the month. This Comfort Inn I must say is a big step above others.  Upon arriving after a long day and an even longer drive I was greated by a nice smile and friendly clerk named Stephanie.  Even though I bombarded her with questions and requested favors the smile never left her face and she was very obliging.  I was also very impressed with the bed and room and they had a really nice indoor pool. The breakfast the next morning was good and just what I needed to get my day going.  I will make it a point to stay at this particular hotel when I am in Katy or Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>kremli, Guest Relations Manager at Comfort Inn &amp; Suites West, responded to this reviewResponded October 4, 2010</t>
+  </si>
+  <si>
+    <t>Responded October 4, 2010</t>
+  </si>
+  <si>
+    <t>I travel quite a bit for work and I am in hotels for most of the month. This Comfort Inn I must say is a big step above others.  Upon arriving after a long day and an even longer drive I was greated by a nice smile and friendly clerk named Stephanie.  Even though I bombarded her with questions and requested favors the smile never left her face and she was very obliging.  I was also very impressed with the bed and room and they had a really nice indoor pool. The breakfast the next morning was good and just what I needed to get my day going.  I will make it a point to stay at this particular hotel when I am in Katy or Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r81403774-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>81403774</t>
+  </si>
+  <si>
+    <t>4 stars at 3 star price</t>
+  </si>
+  <si>
+    <t>big bathroom. door doesn't swing even close to the toilet.8'' crown in the room.furniture nice enough to have at home.the hallways smell like cotton candy.huge dining area.front desk greets upon entry.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>big bathroom. door doesn't swing even close to the toilet.8'' crown in the room.furniture nice enough to have at home.the hallways smell like cotton candy.huge dining area.front desk greets upon entry.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r81400699-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>81400699</t>
+  </si>
+  <si>
+    <t>Consisteant</t>
+  </si>
+  <si>
+    <t>I have been staying at this hotel for several years and have had the same quality service each and every time.The front desk goes out of their way to help you with anything they possiably can. The staff are friendly and helpful to your needs.The breakfast choices are very good, the food is hot / cold and plentiful.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have been staying at this hotel for several years and have had the same quality service each and every time.The front desk goes out of their way to help you with anything they possiably can. The staff are friendly and helpful to your needs.The breakfast choices are very good, the food is hot / cold and plentiful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r69101337-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>69101337</t>
+  </si>
+  <si>
+    <t>06/29/2010</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Our room was nice, had comfortable beds.  Only stayed one night while visiting a friend, but they gave a GREAT military discount that made them comparable in price with the Super 8 and served breakfast.  Breakfast was nothing fancy, but everything we needed and saved me another $20 at least not having to feed myself and 3 children in the morning.  My son took advantage of the fitness room that was included with the price and it was greatly appreciated.   Free WiFi too.    Very satisfied!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>Our room was nice, had comfortable beds.  Only stayed one night while visiting a friend, but they gave a GREAT military discount that made them comparable in price with the Super 8 and served breakfast.  Breakfast was nothing fancy, but everything we needed and saved me another $20 at least not having to feed myself and 3 children in the morning.  My son took advantage of the fitness room that was included with the price and it was greatly appreciated.   Free WiFi too.    Very satisfied!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r67626545-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>67626545</t>
+  </si>
+  <si>
+    <t>06/15/2010</t>
+  </si>
+  <si>
+    <t>Reyna could only say "sure, we can do that, and no problem."</t>
+  </si>
+  <si>
+    <t>We had a two-day training meeting and it was perfect.  We were in a non-smoking room that was located down a non-smoking wing that was close to the meeting room. All was clean and smelled good.  The most outstanding attribute was Reyna, the employee that Comfort Inn needs to hang on to.  She absolutely made the trip and is the reason we will be back each time we have this meeting in Houston/Katy.  Maybe it was the luck of the draw but inconsiderate people of all varieties can ruin a trip.  We didn't run into anyone like that.  If there were smokers there, they were unselfish enough to keep their smoke out of other people's faces.MoreShow less</t>
+  </si>
+  <si>
+    <t>We had a two-day training meeting and it was perfect.  We were in a non-smoking room that was located down a non-smoking wing that was close to the meeting room. All was clean and smelled good.  The most outstanding attribute was Reyna, the employee that Comfort Inn needs to hang on to.  She absolutely made the trip and is the reason we will be back each time we have this meeting in Houston/Katy.  Maybe it was the luck of the draw but inconsiderate people of all varieties can ruin a trip.  We didn't run into anyone like that.  If there were smokers there, they were unselfish enough to keep their smoke out of other people's faces.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r61197761-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>61197761</t>
+  </si>
+  <si>
+    <t>04/13/2010</t>
+  </si>
+  <si>
+    <t>Cigarette Smoke</t>
+  </si>
+  <si>
+    <t>This is not a smoke free Hotel.  The west hallways reeked with cigarette smoke.  When booking my reservation I was told it was smoke free.  I left early due to the cigarette smoke.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>This is not a smoke free Hotel.  The west hallways reeked with cigarette smoke.  When booking my reservation I was told it was smoke free.  I left early due to the cigarette smoke.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r17093112-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>17093112</t>
+  </si>
+  <si>
+    <t>06/20/2008</t>
+  </si>
+  <si>
+    <t>June 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r17063220-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>17063220</t>
+  </si>
+  <si>
+    <t>06/19/2008</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2008</t>
+  </si>
+  <si>
+    <t>kremli, Director of Sales at Comfort Inn &amp; Suites West, responded to this reviewResponded July 19, 2010</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2010</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r12615897-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>12615897</t>
+  </si>
+  <si>
+    <t>01/14/2008</t>
+  </si>
+  <si>
+    <t>January 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r5457743-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>5457743</t>
+  </si>
+  <si>
+    <t>07/11/2006</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r3793928-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>3793928</t>
+  </si>
+  <si>
+    <t>08/20/2005</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r3508966-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>3508966</t>
+  </si>
+  <si>
+    <t>05/28/2005</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1496,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1528,3157 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" t="s">
+        <v>79</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>92</v>
+      </c>
+      <c r="X8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>92</v>
+      </c>
+      <c r="X9" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>107</v>
+      </c>
+      <c r="O10" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>108</v>
+      </c>
+      <c r="X10" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" t="s">
+        <v>114</v>
+      </c>
+      <c r="L11" t="s">
+        <v>115</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>116</v>
+      </c>
+      <c r="O11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>117</v>
+      </c>
+      <c r="X11" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>121</v>
+      </c>
+      <c r="J12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12" t="s">
+        <v>123</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>117</v>
+      </c>
+      <c r="X12" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" t="s">
+        <v>127</v>
+      </c>
+      <c r="K13" t="s">
+        <v>128</v>
+      </c>
+      <c r="L13" t="s">
+        <v>129</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>130</v>
+      </c>
+      <c r="O13" t="s">
+        <v>79</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>131</v>
+      </c>
+      <c r="X13" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>135</v>
+      </c>
+      <c r="J14" t="s">
+        <v>136</v>
+      </c>
+      <c r="K14" t="s">
+        <v>137</v>
+      </c>
+      <c r="L14" t="s">
+        <v>138</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>130</v>
+      </c>
+      <c r="O14" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>139</v>
+      </c>
+      <c r="X14" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" t="s">
+        <v>144</v>
+      </c>
+      <c r="K15" t="s">
+        <v>145</v>
+      </c>
+      <c r="L15" t="s">
+        <v>146</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>130</v>
+      </c>
+      <c r="O15" t="s">
+        <v>66</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>147</v>
+      </c>
+      <c r="X15" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>151</v>
+      </c>
+      <c r="J16" t="s">
+        <v>152</v>
+      </c>
+      <c r="K16" t="s">
+        <v>153</v>
+      </c>
+      <c r="L16" t="s">
+        <v>154</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>155</v>
+      </c>
+      <c r="X16" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>158</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>159</v>
+      </c>
+      <c r="J17" t="s">
+        <v>160</v>
+      </c>
+      <c r="K17" t="s">
+        <v>161</v>
+      </c>
+      <c r="L17" t="s">
+        <v>162</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>163</v>
+      </c>
+      <c r="X17" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>166</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>167</v>
+      </c>
+      <c r="J18" t="s">
+        <v>160</v>
+      </c>
+      <c r="K18" t="s">
+        <v>168</v>
+      </c>
+      <c r="L18" t="s">
+        <v>169</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>170</v>
+      </c>
+      <c r="O18" t="s">
+        <v>66</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>155</v>
+      </c>
+      <c r="X18" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>172</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>173</v>
+      </c>
+      <c r="J19" t="s">
+        <v>174</v>
+      </c>
+      <c r="K19" t="s">
+        <v>175</v>
+      </c>
+      <c r="L19" t="s">
+        <v>176</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>177</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>155</v>
+      </c>
+      <c r="X19" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>179</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>180</v>
+      </c>
+      <c r="J20" t="s">
+        <v>181</v>
+      </c>
+      <c r="K20" t="s">
+        <v>182</v>
+      </c>
+      <c r="L20" t="s">
+        <v>183</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>184</v>
+      </c>
+      <c r="O20" t="s">
+        <v>79</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>155</v>
+      </c>
+      <c r="X20" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>186</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>187</v>
+      </c>
+      <c r="J21" t="s">
+        <v>188</v>
+      </c>
+      <c r="K21" t="s">
+        <v>189</v>
+      </c>
+      <c r="L21" t="s">
+        <v>190</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>184</v>
+      </c>
+      <c r="O21" t="s">
+        <v>79</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>191</v>
+      </c>
+      <c r="X21" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>194</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>195</v>
+      </c>
+      <c r="J22" t="s">
+        <v>196</v>
+      </c>
+      <c r="K22" t="s">
+        <v>197</v>
+      </c>
+      <c r="L22" t="s">
+        <v>198</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>199</v>
+      </c>
+      <c r="O22" t="s">
+        <v>66</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>200</v>
+      </c>
+      <c r="X22" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>202</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>203</v>
+      </c>
+      <c r="J23" t="s">
+        <v>204</v>
+      </c>
+      <c r="K23" t="s">
+        <v>205</v>
+      </c>
+      <c r="L23" t="s">
+        <v>206</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>207</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>209</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>210</v>
+      </c>
+      <c r="J24" t="s">
+        <v>211</v>
+      </c>
+      <c r="K24" t="s">
+        <v>212</v>
+      </c>
+      <c r="L24" t="s">
+        <v>213</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>214</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>215</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>216</v>
+      </c>
+      <c r="J25" t="s">
+        <v>217</v>
+      </c>
+      <c r="K25" t="s">
+        <v>218</v>
+      </c>
+      <c r="L25" t="s">
+        <v>219</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>220</v>
+      </c>
+      <c r="O25" t="s">
+        <v>79</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>221</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>222</v>
+      </c>
+      <c r="J26" t="s">
+        <v>223</v>
+      </c>
+      <c r="K26" t="s">
+        <v>224</v>
+      </c>
+      <c r="L26" t="s">
+        <v>225</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>226</v>
+      </c>
+      <c r="O26" t="s">
+        <v>66</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>227</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>228</v>
+      </c>
+      <c r="J27" t="s">
+        <v>229</v>
+      </c>
+      <c r="K27" t="s">
+        <v>230</v>
+      </c>
+      <c r="L27" t="s">
+        <v>231</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>226</v>
+      </c>
+      <c r="O27" t="s">
+        <v>66</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>233</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>234</v>
+      </c>
+      <c r="J28" t="s">
+        <v>235</v>
+      </c>
+      <c r="K28" t="s">
+        <v>236</v>
+      </c>
+      <c r="L28" t="s">
+        <v>237</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>239</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>240</v>
+      </c>
+      <c r="J29" t="s">
+        <v>241</v>
+      </c>
+      <c r="K29" t="s">
+        <v>242</v>
+      </c>
+      <c r="L29" t="s">
+        <v>243</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>244</v>
+      </c>
+      <c r="O29" t="s">
+        <v>79</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>245</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>246</v>
+      </c>
+      <c r="J30" t="s">
+        <v>247</v>
+      </c>
+      <c r="K30" t="s">
+        <v>248</v>
+      </c>
+      <c r="L30" t="s">
+        <v>249</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>251</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>252</v>
+      </c>
+      <c r="J31" t="s">
+        <v>253</v>
+      </c>
+      <c r="K31" t="s">
+        <v>254</v>
+      </c>
+      <c r="L31" t="s">
+        <v>255</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>244</v>
+      </c>
+      <c r="O31" t="s">
+        <v>79</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>256</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>257</v>
+      </c>
+      <c r="J32" t="s">
+        <v>258</v>
+      </c>
+      <c r="K32" t="s">
+        <v>259</v>
+      </c>
+      <c r="L32" t="s">
+        <v>260</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>261</v>
+      </c>
+      <c r="O32" t="s">
+        <v>66</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>262</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>263</v>
+      </c>
+      <c r="J33" t="s">
+        <v>264</v>
+      </c>
+      <c r="K33" t="s">
+        <v>265</v>
+      </c>
+      <c r="L33" t="s">
+        <v>266</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>261</v>
+      </c>
+      <c r="O33" t="s">
+        <v>79</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>267</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>268</v>
+      </c>
+      <c r="J34" t="s">
+        <v>269</v>
+      </c>
+      <c r="K34" t="s">
+        <v>270</v>
+      </c>
+      <c r="L34" t="s">
+        <v>271</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>272</v>
+      </c>
+      <c r="O34" t="s">
+        <v>79</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>274</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>275</v>
+      </c>
+      <c r="J35" t="s">
+        <v>276</v>
+      </c>
+      <c r="K35" t="s">
+        <v>277</v>
+      </c>
+      <c r="L35" t="s">
+        <v>278</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>279</v>
+      </c>
+      <c r="O35" t="s">
+        <v>60</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>281</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>282</v>
+      </c>
+      <c r="J36" t="s">
+        <v>283</v>
+      </c>
+      <c r="K36" t="s">
+        <v>284</v>
+      </c>
+      <c r="L36" t="s">
+        <v>285</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>286</v>
+      </c>
+      <c r="O36" t="s">
+        <v>79</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>288</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>289</v>
+      </c>
+      <c r="J37" t="s">
+        <v>290</v>
+      </c>
+      <c r="K37" t="s">
+        <v>291</v>
+      </c>
+      <c r="L37" t="s">
+        <v>292</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>286</v>
+      </c>
+      <c r="O37" t="s">
+        <v>79</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>294</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>295</v>
+      </c>
+      <c r="J38" t="s">
+        <v>296</v>
+      </c>
+      <c r="K38" t="s">
+        <v>297</v>
+      </c>
+      <c r="L38" t="s">
+        <v>298</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>299</v>
+      </c>
+      <c r="O38" t="s">
+        <v>66</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>300</v>
+      </c>
+      <c r="X38" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>303</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>304</v>
+      </c>
+      <c r="J39" t="s">
+        <v>296</v>
+      </c>
+      <c r="K39" t="s">
+        <v>305</v>
+      </c>
+      <c r="L39" t="s">
+        <v>306</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>307</v>
+      </c>
+      <c r="O39" t="s">
+        <v>66</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>300</v>
+      </c>
+      <c r="X39" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>309</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>310</v>
+      </c>
+      <c r="J40" t="s">
+        <v>296</v>
+      </c>
+      <c r="K40" t="s">
+        <v>311</v>
+      </c>
+      <c r="L40" t="s">
+        <v>312</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>307</v>
+      </c>
+      <c r="O40" t="s">
+        <v>66</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>300</v>
+      </c>
+      <c r="X40" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>314</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>315</v>
+      </c>
+      <c r="J41" t="s">
+        <v>316</v>
+      </c>
+      <c r="K41" t="s">
+        <v>317</v>
+      </c>
+      <c r="L41" t="s">
+        <v>318</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>319</v>
+      </c>
+      <c r="O41" t="s">
+        <v>79</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>300</v>
+      </c>
+      <c r="X41" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>321</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>322</v>
+      </c>
+      <c r="J42" t="s">
+        <v>323</v>
+      </c>
+      <c r="K42" t="s">
+        <v>324</v>
+      </c>
+      <c r="L42" t="s">
+        <v>325</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>319</v>
+      </c>
+      <c r="O42" t="s">
+        <v>66</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>300</v>
+      </c>
+      <c r="X42" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>327</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>328</v>
+      </c>
+      <c r="J43" t="s">
+        <v>329</v>
+      </c>
+      <c r="K43" t="s">
+        <v>330</v>
+      </c>
+      <c r="L43" t="s">
+        <v>331</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>332</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>300</v>
+      </c>
+      <c r="X43" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>334</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>335</v>
+      </c>
+      <c r="J44" t="s">
+        <v>336</v>
+      </c>
+      <c r="K44" t="s"/>
+      <c r="L44" t="s"/>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>337</v>
+      </c>
+      <c r="O44" t="s">
+        <v>79</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>338</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>339</v>
+      </c>
+      <c r="J45" t="s">
+        <v>340</v>
+      </c>
+      <c r="K45" t="s"/>
+      <c r="L45" t="s">
+        <v>341</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>342</v>
+      </c>
+      <c r="O45" t="s">
+        <v>79</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>343</v>
+      </c>
+      <c r="X45" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>346</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>347</v>
+      </c>
+      <c r="J46" t="s">
+        <v>348</v>
+      </c>
+      <c r="K46" t="s"/>
+      <c r="L46" t="s">
+        <v>341</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>349</v>
+      </c>
+      <c r="O46" t="s">
+        <v>79</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>343</v>
+      </c>
+      <c r="X46" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>350</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>351</v>
+      </c>
+      <c r="J47" t="s">
+        <v>352</v>
+      </c>
+      <c r="K47" t="s"/>
+      <c r="L47" t="s"/>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>353</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>354</v>
+      </c>
+      <c r="J48" t="s">
+        <v>355</v>
+      </c>
+      <c r="K48" t="s"/>
+      <c r="L48" t="s">
+        <v>341</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="s"/>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>356</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>357</v>
+      </c>
+      <c r="J49" t="s">
+        <v>358</v>
+      </c>
+      <c r="K49" t="s"/>
+      <c r="L49" t="s">
+        <v>341</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_98.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_98.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="561">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r600909027-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>56062</t>
+  </si>
+  <si>
+    <t>124461</t>
+  </si>
+  <si>
+    <t>600909027</t>
+  </si>
+  <si>
+    <t>07/29/2018</t>
+  </si>
+  <si>
+    <t>Awesome deal</t>
+  </si>
+  <si>
+    <t>Stayed here on our way to Israel.  Good location.  Breakfast bar was surprisingly diverse and good. Eggs, sausage, breads, yogurts, hot waffles and juices.  Location worked out well for us.  A long way from IAH, but Uber is available.  However, we had my awesome sister take us to the airport and saved on 10 days parking.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r575296313-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>575296313</t>
+  </si>
+  <si>
+    <t>04/23/2018</t>
+  </si>
+  <si>
+    <t>Helpful and Hospitable</t>
+  </si>
+  <si>
+    <t>The rooms are spacious and very clean. The front desk staff were always very cordial and the housekeeping staff thorough in making the rooms welcoming even though they are not updated. I stayed in a King suite and found the bed to be very comfortable. The breakfast menu was different every day and there was a large assortment of fresh fruits and mini pastries.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r573369838-Comfort_Inn_Suites_West-Katy_Texas.html</t>
   </si>
   <si>
-    <t>56062</t>
-  </si>
-  <si>
-    <t>124461</t>
-  </si>
-  <si>
     <t>573369838</t>
   </si>
   <si>
@@ -174,9 +216,6 @@
     <t>When we checked in, the desk clerk was very nice but when we got to our room it was not clean and had not been made up. It also smelled funny. We went back to the front desk and the desk clerk apologized profusely. She showed us that the cleaning chart showed that room had been cleaned. She upgraded us to a suite which was clean and pleasant. The rest of our stay was uneventful. The beds were comfortable, the Wi-Fi worked well, breakfast had a lot of variety, the hot tub was nice. I would stay here again.</t>
   </si>
   <si>
-    <t>April 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
@@ -198,9 +237,6 @@
     <t>March 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r565522882-Comfort_Inn_Suites_West-Katy_Texas.html</t>
   </si>
   <si>
@@ -219,6 +255,48 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r529448102-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>529448102</t>
+  </si>
+  <si>
+    <t>10/03/2017</t>
+  </si>
+  <si>
+    <t>The WORST in Katy!!!  Stay anywhere else !!!</t>
+  </si>
+  <si>
+    <t>I don't expect luxury from a Comfort Inn, all I really want is polite service and a somewhat clean room.  My room was not ready yet at 6:45 PM, and I had to wait in the lobby while they cleaned it.  The front desk girl was very rude, and did not even offer an apology for the wait.  When I got tot the room there was standing water all around the air-conditioning unit and the room smelled very strong of something gross. That particular front desk girl continued to give my bad service and was just plain nasty to me.  So - rude service, gross room - I won't be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>I don't expect luxury from a Comfort Inn, all I really want is polite service and a somewhat clean room.  My room was not ready yet at 6:45 PM, and I had to wait in the lobby while they cleaned it.  The front desk girl was very rude, and did not even offer an apology for the wait.  When I got tot the room there was standing water all around the air-conditioning unit and the room smelled very strong of something gross. That particular front desk girl continued to give my bad service and was just plain nasty to me.  So - rude service, gross room - I won't be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r526342816-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>526342816</t>
+  </si>
+  <si>
+    <t>09/21/2017</t>
+  </si>
+  <si>
+    <t>Bad Experience</t>
+  </si>
+  <si>
+    <t>I arrived at the check-in counter but no one was there so I waited.  An older lady (I believe her name was Susan) eventually came up and I gave her my name.  It took about 10 minutes to complete check-in and she handed me a sheet of paper with my room number on it.  I go up to my floor and walk down a hallway littered with overflowing trash (empty pizza boxes, etc) arrive at the door and try the key.  It doesn't work so I keep trying to no avail.  On my last try, the door opens and there stands a man, wondering why I was there.  Scared me silly!  Anyway, I apologize to him, head back down to the front desk and tell Ms. Susan, someone is already occupying the room.  She asked me who it was as if I worked there!  She then calls and asks him who he is while I wait...fuming.  She goes to the computer to find another room, scratches out the original room number on the paper she gave me earlier and places a new number on it.  I asked her to call the room to make sure it was unoccupied.  I make my way back up to my floor and enter the room which smelled like smoke.  Turned on the TV but the noise in the hallway, made it impossible to relax.  Finally, I just gather my things and decide to check...I arrived at the check-in counter but no one was there so I waited.  An older lady (I believe her name was Susan) eventually came up and I gave her my name.  It took about 10 minutes to complete check-in and she handed me a sheet of paper with my room number on it.  I go up to my floor and walk down a hallway littered with overflowing trash (empty pizza boxes, etc) arrive at the door and try the key.  It doesn't work so I keep trying to no avail.  On my last try, the door opens and there stands a man, wondering why I was there.  Scared me silly!  Anyway, I apologize to him, head back down to the front desk and tell Ms. Susan, someone is already occupying the room.  She asked me who it was as if I worked there!  She then calls and asks him who he is while I wait...fuming.  She goes to the computer to find another room, scratches out the original room number on the paper she gave me earlier and places a new number on it.  I asked her to call the room to make sure it was unoccupied.  I make my way back up to my floor and enter the room which smelled like smoke.  Turned on the TV but the noise in the hallway, made it impossible to relax.  Finally, I just gather my things and decide to check out but when I arrived at the front desk, no one was there so I just had to walk out.  This was the worst hotel experience and I do not recommend anyone, short of desperation, stay there.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>I arrived at the check-in counter but no one was there so I waited.  An older lady (I believe her name was Susan) eventually came up and I gave her my name.  It took about 10 minutes to complete check-in and she handed me a sheet of paper with my room number on it.  I go up to my floor and walk down a hallway littered with overflowing trash (empty pizza boxes, etc) arrive at the door and try the key.  It doesn't work so I keep trying to no avail.  On my last try, the door opens and there stands a man, wondering why I was there.  Scared me silly!  Anyway, I apologize to him, head back down to the front desk and tell Ms. Susan, someone is already occupying the room.  She asked me who it was as if I worked there!  She then calls and asks him who he is while I wait...fuming.  She goes to the computer to find another room, scratches out the original room number on the paper she gave me earlier and places a new number on it.  I asked her to call the room to make sure it was unoccupied.  I make my way back up to my floor and enter the room which smelled like smoke.  Turned on the TV but the noise in the hallway, made it impossible to relax.  Finally, I just gather my things and decide to check...I arrived at the check-in counter but no one was there so I waited.  An older lady (I believe her name was Susan) eventually came up and I gave her my name.  It took about 10 minutes to complete check-in and she handed me a sheet of paper with my room number on it.  I go up to my floor and walk down a hallway littered with overflowing trash (empty pizza boxes, etc) arrive at the door and try the key.  It doesn't work so I keep trying to no avail.  On my last try, the door opens and there stands a man, wondering why I was there.  Scared me silly!  Anyway, I apologize to him, head back down to the front desk and tell Ms. Susan, someone is already occupying the room.  She asked me who it was as if I worked there!  She then calls and asks him who he is while I wait...fuming.  She goes to the computer to find another room, scratches out the original room number on the paper she gave me earlier and places a new number on it.  I asked her to call the room to make sure it was unoccupied.  I make my way back up to my floor and enter the room which smelled like smoke.  Turned on the TV but the noise in the hallway, made it impossible to relax.  Finally, I just gather my things and decide to check out but when I arrived at the front desk, no one was there so I just had to walk out.  This was the worst hotel experience and I do not recommend anyone, short of desperation, stay there.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r506337437-Comfort_Inn_Suites_West-Katy_Texas.html</t>
   </si>
   <si>
@@ -255,9 +333,6 @@
     <t>June 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r490135966-Comfort_Inn_Suites_West-Katy_Texas.html</t>
   </si>
   <si>
@@ -276,6 +351,39 @@
     <t>We stayed overnight for a graduation ceremony. This alternative beat driving four hours home after the celebration dinner. Here is what I liked about this Hotel. They had beds, breakfast, and was just off I-10. The room has a TV, mini fridge, desk, and chair. Linens were well stocked in the bathroom. Coffee pot was next to the TV with all the fixings.Here's what can be improved upon. The mattresses. I love a nice firm mattress, but please don't ask us to pay to sleep on bricks. I generally sleep like a baby in these hotels, but not this one. The chair in the room was dirty and worn, it needed a replacement. Stop putting ice buckets and glasses in the bathroom. That's just gross. I can't tell you how many places I go and this is where you find these items. I won't even use them if I find them there. At least the coffee pot wasn't in the bathroom. Breakfast was your typical breakfast included spread. They had sausage patties, potatoes, processed egg patties, biscuits, boiled eggs, yogurt, fruit, cereal, bread, pastries and waffles along with milk, juice, coffee, teas, and water. I wasn't picky, so I had my typical breakfast portion and that kept me until a little before lunch. The coffee was good though. I will say that.I would look elsewhere for a better mattress. Won't be staying here again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r489981090-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>489981090</t>
+  </si>
+  <si>
+    <t>06/02/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just average </t>
+  </si>
+  <si>
+    <t>This hotel was fine to sleep at for a night. Everything was clean and we had a quiet night. This was nothing special - just an average hotel.  The breakfast was rather lackluster as we have had more choices offered at other Comfort Inns.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r468417959-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>468417959</t>
+  </si>
+  <si>
+    <t>03/18/2017</t>
+  </si>
+  <si>
+    <t>Horrible Stay</t>
+  </si>
+  <si>
+    <t>I would not recommend this hotel..her name is McDonald and Do Not trust her with your credit card.  I received unauthorized charges on my account by her.  The staff is not hospitable but genuinely fake.  Stayed one night and would not return even for free.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r454516239-Comfort_Inn_Suites_West-Katy_Texas.html</t>
   </si>
   <si>
@@ -351,6 +459,68 @@
     <t>My favorite thing about staying here is the welcoming and friendly staff.  The rooms are clean, the air works well, everything you would expect. BUT, the front desk staff is wonderful.  They take the time to ask how you are doing, and actually listen to the answers.  They give great suggestions on things to see while in the area.  I would certainly stay there again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r395893954-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>395893954</t>
+  </si>
+  <si>
+    <t>07/23/2016</t>
+  </si>
+  <si>
+    <t>Never again.</t>
+  </si>
+  <si>
+    <t>Last night I stayed in one of the jacuzzi rooms. By the looks of the hotel, you'd think you'd get top notch service and a spotless room. Unfortunately that was not the case. 
+Upon walking into the jacuzzi room you get slapped with the smell of old water and mildew. It was so bad that I had taken the air freshener out of my car to mask the smell. Thinking the jacuzzi was clean my fiancé started to fill it up. Come to find out it was FILTHY. He wiped the edge of the tub with one of their white washcloths and BOOM nothing but brown gunk. So we decided to wipe the inside of the tub... I nearly gagged. All I could ask myself was "Has this thing ever been cleaned?" 
+Next, I wanted to get a couple drinks and snacks from the vending machine in the room with the washers - the Coke machine had HARDLY any drinks and it ate $2 of my money. The vending machine didn't even take my crisp dollar bills. 
+Then, the morning I checked out I went to grab breakfast.. The potatoes were hard and overcooked and everything else looked like it came from a microwave. Please tell me the proper way to cook eggs.. Because it's definitely not in a microwave. 
+Finally I got my things together to check out, after leaving a note in the describing everything I had mentioned...Last night I stayed in one of the jacuzzi rooms. By the looks of the hotel, you'd think you'd get top notch service and a spotless room. Unfortunately that was not the case. Upon walking into the jacuzzi room you get slapped with the smell of old water and mildew. It was so bad that I had taken the air freshener out of my car to mask the smell. Thinking the jacuzzi was clean my fiancé started to fill it up. Come to find out it was FILTHY. He wiped the edge of the tub with one of their white washcloths and BOOM nothing but brown gunk. So we decided to wipe the inside of the tub... I nearly gagged. All I could ask myself was "Has this thing ever been cleaned?" Next, I wanted to get a couple drinks and snacks from the vending machine in the room with the washers - the Coke machine had HARDLY any drinks and it ate $2 of my money. The vending machine didn't even take my crisp dollar bills. Then, the morning I checked out I went to grab breakfast.. The potatoes were hard and overcooked and everything else looked like it came from a microwave. Please tell me the proper way to cook eggs.. Because it's definitely not in a microwave. Finally I got my things together to check out, after leaving a note in the describing everything I had mentioned above, never complaining to front desk about anything. Everything went smoothly until an hour later when I got a phone call saying that I was being charged $250 for smoking in the room. I don't smoke - I have severe life threatening allergies to smoke. As for my boyfriend, he's a severe asthmatic. We DO NOT and DID NOT smoke. I politely told the receptionist that called me that we did not smoke in the room and all she could say is "Uhh, yes you did the housekeeper told me." At that point all I could think was how ridiculous the situation was but wait.. There's more. After telling her we didn't smoke and her telling me that my card had declined the $250 charge, she proceeded to THREATEN me by saying she was calling the cops and going to press charges for THEFT if I wasn't back up there to pay her. I reluctantly agreed and after saying "Okay, I'll pay it." She quickly comes back with, "Oh, so you WANT me to call the cops?!" I eventually drove back up there to pay, because a THEFT CHARGE?! I have never stolen anything. I have a clear record but now I'm out of $250 because of some "he said/she said" bologna. I would NEVER stay here again and I will tell EVERYONE about my experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Guest R, Guest Relations Manager at Comfort Inn &amp; Suites West, responded to this reviewResponded September 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 26, 2016</t>
+  </si>
+  <si>
+    <t>Last night I stayed in one of the jacuzzi rooms. By the looks of the hotel, you'd think you'd get top notch service and a spotless room. Unfortunately that was not the case. 
+Upon walking into the jacuzzi room you get slapped with the smell of old water and mildew. It was so bad that I had taken the air freshener out of my car to mask the smell. Thinking the jacuzzi was clean my fiancé started to fill it up. Come to find out it was FILTHY. He wiped the edge of the tub with one of their white washcloths and BOOM nothing but brown gunk. So we decided to wipe the inside of the tub... I nearly gagged. All I could ask myself was "Has this thing ever been cleaned?" 
+Next, I wanted to get a couple drinks and snacks from the vending machine in the room with the washers - the Coke machine had HARDLY any drinks and it ate $2 of my money. The vending machine didn't even take my crisp dollar bills. 
+Then, the morning I checked out I went to grab breakfast.. The potatoes were hard and overcooked and everything else looked like it came from a microwave. Please tell me the proper way to cook eggs.. Because it's definitely not in a microwave. 
+Finally I got my things together to check out, after leaving a note in the describing everything I had mentioned...Last night I stayed in one of the jacuzzi rooms. By the looks of the hotel, you'd think you'd get top notch service and a spotless room. Unfortunately that was not the case. Upon walking into the jacuzzi room you get slapped with the smell of old water and mildew. It was so bad that I had taken the air freshener out of my car to mask the smell. Thinking the jacuzzi was clean my fiancé started to fill it up. Come to find out it was FILTHY. He wiped the edge of the tub with one of their white washcloths and BOOM nothing but brown gunk. So we decided to wipe the inside of the tub... I nearly gagged. All I could ask myself was "Has this thing ever been cleaned?" Next, I wanted to get a couple drinks and snacks from the vending machine in the room with the washers - the Coke machine had HARDLY any drinks and it ate $2 of my money. The vending machine didn't even take my crisp dollar bills. Then, the morning I checked out I went to grab breakfast.. The potatoes were hard and overcooked and everything else looked like it came from a microwave. Please tell me the proper way to cook eggs.. Because it's definitely not in a microwave. Finally I got my things together to check out, after leaving a note in the describing everything I had mentioned above, never complaining to front desk about anything. Everything went smoothly until an hour later when I got a phone call saying that I was being charged $250 for smoking in the room. I don't smoke - I have severe life threatening allergies to smoke. As for my boyfriend, he's a severe asthmatic. We DO NOT and DID NOT smoke. I politely told the receptionist that called me that we did not smoke in the room and all she could say is "Uhh, yes you did the housekeeper told me." At that point all I could think was how ridiculous the situation was but wait.. There's more. After telling her we didn't smoke and her telling me that my card had declined the $250 charge, she proceeded to THREATEN me by saying she was calling the cops and going to press charges for THEFT if I wasn't back up there to pay her. I reluctantly agreed and after saying "Okay, I'll pay it." She quickly comes back with, "Oh, so you WANT me to call the cops?!" I eventually drove back up there to pay, because a THEFT CHARGE?! I have never stolen anything. I have a clear record but now I'm out of $250 because of some "he said/she said" bologna. I would NEVER stay here again and I will tell EVERYONE about my experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r389748481-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>389748481</t>
+  </si>
+  <si>
+    <t>07/06/2016</t>
+  </si>
+  <si>
+    <t>When in town, stay here</t>
+  </si>
+  <si>
+    <t>I come to Katy a few times a year to visit family. I am never disappointed with the quality and staff service. Great rooms, clean bedding and towels. Convenient location. Close to the mall and waterpark. Great hot breakfast too.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Guest R, Guest Relations Manager at Comfort Inn &amp; Suites West, responded to this reviewResponded July 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2016</t>
+  </si>
+  <si>
+    <t>I come to Katy a few times a year to visit family. I am never disappointed with the quality and staff service. Great rooms, clean bedding and towels. Convenient location. Close to the mall and waterpark. Great hot breakfast too.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r389446875-Comfort_Inn_Suites_West-Katy_Texas.html</t>
   </si>
   <si>
@@ -364,15 +534,6 @@
   </si>
   <si>
     <t>A good hotel for a reasonable rate. The room itself was excellent, but parking and access to the room was not as easy as some other hotels I've stayed at. The staff was nice enough, but seemed a little overwhelmed at times. Breakfast was better than most I've stayed at, so I will stay here again.MoreShow less</t>
-  </si>
-  <si>
-    <t>June 2016</t>
-  </si>
-  <si>
-    <t>Guest R, Guest Relations Manager at Comfort Inn &amp; Suites West, responded to this reviewResponded July 7, 2016</t>
-  </si>
-  <si>
-    <t>Responded July 7, 2016</t>
   </si>
   <si>
     <t>A good hotel for a reasonable rate. The room itself was excellent, but parking and access to the room was not as easy as some other hotels I've stayed at. The staff was nice enough, but seemed a little overwhelmed at times. Breakfast was better than most I've stayed at, so I will stay here again.More</t>
@@ -428,6 +589,57 @@
 I disputed the charge on my credit card and it was removed.  In June, I received a letter from my credit card along with a printout from the hotel stating that the reservation was non-refundable at the time of booking and a confirmation that I had...I booked a room for this hotel 1/13/16.  I booked and prepaid online.  When I printed my reservation information, I noticed I had inadvertently booked a smoking room.  I called immediately to change the room to a non-smoking room.  The person I spoke with at the front desk informed me that I had booked a smoking AND a non-smoking room.  She cancelled the smoking room for me.  So my credit card had been charged twice (once per room); but she issued a credit for the smoking room.  When I arrived 2/26 for my two night stay, my card was charged again even though I informed the person at the front desk that the room had been prepaid.  I waited until I returned home to make sure I was correct and that I had in fact been charged for the room at the time of booking.  I had been charged twice, credited once and then charged again at check-in.  I tried calling the hotel and the manager has never been available.  I left a voice mail message once and every time after that the voice mail box was full and unable to accept a message.  I disputed the charge on my credit card and it was removed.  In June, I received a letter from my credit card along with a printout from the hotel stating that the reservation was non-refundable at the time of booking and a confirmation that I had stayed in two rooms for two nights.  I have since tried to contact the manager, the customer service manager, the general manager and any other person with any kind of authority to correct this issue.  I've called the corporate office twice and held for over 35 minutes each time in an attempt to get this resolved with the help of the corporate office.  Both times I was told a manager from the hotel would correct the issue and get back with me within 72 hours.  It's been 11 days since the first time this claim was made.  The managers still haven't returned a call.  The front desk clerks continue to be polite; but completely incompetent with no authority to correct the error.This is not my first stay at a Comfort Inn.  I am a member of their frequent stay program; but I have never had this kind of problem.The corporate customer service representatives are friendly and they try to be helpful; but they are at the mercy of the incompetent management of this hotel.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r382604874-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>382604874</t>
+  </si>
+  <si>
+    <t>06/14/2016</t>
+  </si>
+  <si>
+    <t>Nice stop for a quick overnight visit</t>
+  </si>
+  <si>
+    <t>came into Katy for a short visit - the room was ready around 2pm which allowed us to get checked in and go off for some local fare. Lots of choices nearby so we didn't have to go far for a great meal. The room was clean, bathroom was clean, no odors, everything fresh, we went out for the evening, came back to a nice cool room, the bed felt great, you could just melt into it - lots of fluffy pillows made for a good sound sleep. Breakfast was good, much better than NOT having a breakfast provided, waffles were good, powdered scrambled eggs but it filled the bill - great choice of fresh tasting juice and good Hot Coffee! my overall for my stay = thumbs up with an A.MoreShow less</t>
+  </si>
+  <si>
+    <t>Guest R, Guest Relations Manager at Comfort Inn &amp; Suites West, responded to this reviewResponded June 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2016</t>
+  </si>
+  <si>
+    <t>came into Katy for a short visit - the room was ready around 2pm which allowed us to get checked in and go off for some local fare. Lots of choices nearby so we didn't have to go far for a great meal. The room was clean, bathroom was clean, no odors, everything fresh, we went out for the evening, came back to a nice cool room, the bed felt great, you could just melt into it - lots of fluffy pillows made for a good sound sleep. Breakfast was good, much better than NOT having a breakfast provided, waffles were good, powdered scrambled eggs but it filled the bill - great choice of fresh tasting juice and good Hot Coffee! my overall for my stay = thumbs up with an A.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r362418650-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>362418650</t>
+  </si>
+  <si>
+    <t>04/07/2016</t>
+  </si>
+  <si>
+    <t>Not up to my Comfort Suites expectation</t>
+  </si>
+  <si>
+    <t>The room was clean - goodThe bathroom was clean - goodThe bathroom was a handicapped access and VERY inconvenient.  The layout was awful.  There was no place to put your "stuff" in the bathroom.The breakfast was good, hot food, good choicesThe bed, was awful.  The noisiest bed I have ever heard.  It constantly made Squawking noises every time you moved.  I could hear other beds making the same noises during the night.  I'm sure glad I wasn't near the honeymoon suite!Access was pretty strange.  Only one entrance driveway.  The others were locked up.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Guest R, Guest Relations Manager at Comfort Inn &amp; Suites West, responded to this reviewResponded April 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2016</t>
+  </si>
+  <si>
+    <t>The room was clean - goodThe bathroom was clean - goodThe bathroom was a handicapped access and VERY inconvenient.  The layout was awful.  There was no place to put your "stuff" in the bathroom.The breakfast was good, hot food, good choicesThe bed, was awful.  The noisiest bed I have ever heard.  It constantly made Squawking noises every time you moved.  I could hear other beds making the same noises during the night.  I'm sure glad I wasn't near the honeymoon suite!Access was pretty strange.  Only one entrance driveway.  The others were locked up.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r354565063-Comfort_Inn_Suites_West-Katy_Texas.html</t>
   </si>
   <si>
@@ -443,12 +655,6 @@
     <t>We had some clothing damaged on the 20th of February 2016, due to them staining their furniture the day before they put us in the room.  They wanted us to leave the clothing with them and they would have them drycleaned.  I have yet to hear from Nancy Hernandez or receive my clothing back cleaned.  I have left over 10 messages, still no call back.  I am told by the front desk that she is in and out of the office.  They refuse to let me know who her boss is, I just get transfered to her voicemail.  I have filed a complaint with Choice hotels.  It has become beyond crazy.MoreShow less</t>
   </si>
   <si>
-    <t>Guest R, Guest Relations Manager at Comfort Inn &amp; Suites West, responded to this reviewResponded April 28, 2016</t>
-  </si>
-  <si>
-    <t>Responded April 28, 2016</t>
-  </si>
-  <si>
     <t>We had some clothing damaged on the 20th of February 2016, due to them staining their furniture the day before they put us in the room.  They wanted us to leave the clothing with them and they would have them drycleaned.  I have yet to hear from Nancy Hernandez or receive my clothing back cleaned.  I have left over 10 messages, still no call back.  I am told by the front desk that she is in and out of the office.  They refuse to let me know who her boss is, I just get transfered to her voicemail.  I have filed a complaint with Choice hotels.  It has become beyond crazy.More</t>
   </si>
   <si>
@@ -500,6 +706,60 @@
     <t>I stayed at the Comfort for three nights last week and I could not have picked a better hotel.From the day I made my reservation,I received nothing but great service from their helpful, polite and highly trained  staff.Room was very lovely,clean,and super comfortable and the lobby was very relaxing with calm atmosphere.I highly recommend it.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r318803401-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>318803401</t>
+  </si>
+  <si>
+    <t>10/14/2015</t>
+  </si>
+  <si>
+    <t>Best room of the trip</t>
+  </si>
+  <si>
+    <t>This room was the best. The hotel lobby was luxurious looking, cookies and coffee offered. Reservation was ready just what we requested.  We like two queen beds,  We sleep in one and put clothes on the other.  The room had white covers that made it look as clean as it was.  The bad was well equipped with all the amenities. Real luxury at reasonable price.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Guest R, Guest Relations Manager at Comfort Inn &amp; Suites West, responded to this reviewResponded November 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 4, 2015</t>
+  </si>
+  <si>
+    <t>This room was the best. The hotel lobby was luxurious looking, cookies and coffee offered. Reservation was ready just what we requested.  We like two queen beds,  We sleep in one and put clothes on the other.  The room had white covers that made it look as clean as it was.  The bad was well equipped with all the amenities. Real luxury at reasonable price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r313908017-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>313908017</t>
+  </si>
+  <si>
+    <t>09/26/2015</t>
+  </si>
+  <si>
+    <t>Like the rate for the outstanding room</t>
+  </si>
+  <si>
+    <t>I like this location because it is very close to hospital ,my room was beautifull and clean very friendly staff especially the house keepers when I ask them to clean my room at time that was convinate for me they did .I liked the breakfast and lobby with big tv I would suggest this hotel to every one with price I paid I got great roomMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Guest R, Manager at Comfort Inn &amp; Suites West, responded to this reviewResponded September 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2015</t>
+  </si>
+  <si>
+    <t>I like this location because it is very close to hospital ,my room was beautifull and clean very friendly staff especially the house keepers when I ask them to clean my room at time that was convinate for me they did .I liked the breakfast and lobby with big tv I would suggest this hotel to every one with price I paid I got great roomMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r311433308-Comfort_Inn_Suites_West-Katy_Texas.html</t>
   </si>
   <si>
@@ -515,12 +775,6 @@
     <t>I have to say my stay here was great. It was clean and  really comfortable bed! Best night sleep! The stuff was super friendly and helpful. I recommend this hotel to any one staying in the Katy area!!!! MoreShow less</t>
   </si>
   <si>
-    <t>Guest R, Manager at Comfort Inn &amp; Suites West, responded to this reviewResponded September 29, 2015</t>
-  </si>
-  <si>
-    <t>Responded September 29, 2015</t>
-  </si>
-  <si>
     <t>I have to say my stay here was great. It was clean and  really comfortable bed! Best night sleep! The stuff was super friendly and helpful. I recommend this hotel to any one staying in the Katy area!!!! More</t>
   </si>
   <si>
@@ -557,30 +811,60 @@
     <t>Me and my husband had a wonderful weekend at this hotel . The room was very comfortable and clean. The staff was very helpful and friendly. We really enjoyed their hot breakfast in the morning and the indoor pool. Will definitely stay here anytime in Katy. Great location and price!MoreShow less</t>
   </si>
   <si>
-    <t>September 2015</t>
-  </si>
-  <si>
     <t>Me and my husband had a wonderful weekend at this hotel . The room was very comfortable and clean. The staff was very helpful and friendly. We really enjoyed their hot breakfast in the morning and the indoor pool. Will definitely stay here anytime in Katy. Great location and price!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r303398709-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>303398709</t>
+  </si>
+  <si>
+    <t>08/25/2015</t>
+  </si>
+  <si>
+    <t>FIVE STARS!</t>
+  </si>
+  <si>
+    <t>Excellent Customer Service I really felt like I was at home. The employees take no shortcuts to ensure the guests have a pleasant experience. Furniture is so comfortable with a rich quality I can tell it's new, they must have remodeled recently. Upon arrival I was greeted by 2 very nice concierge, one gave me my key and the other showed me around the hotel. Internet worked perfect and food in the morning was full of flavor and filling. I really felt at home and will continue to stay at the Comfort Inn and Suites EVERY time I stay in Katy, Thank You guys for all the above and beyond hospitality!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Excellent Customer Service I really felt like I was at home. The employees take no shortcuts to ensure the guests have a pleasant experience. Furniture is so comfortable with a rich quality I can tell it's new, they must have remodeled recently. Upon arrival I was greeted by 2 very nice concierge, one gave me my key and the other showed me around the hotel. Internet worked perfect and food in the morning was full of flavor and filling. I really felt at home and will continue to stay at the Comfort Inn and Suites EVERY time I stay in Katy, Thank You guys for all the above and beyond hospitality!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r303288720-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>303288720</t>
+  </si>
+  <si>
+    <t>Great Value for money  (Specially indoor pool)</t>
+  </si>
+  <si>
+    <t>I stayed in this place for 3 nights. The front desk clerk was very nice and friendly and she upgraded me to a suite, which was really nice.  As I have walked into my room I couldn't believe that everything looks new and clean, I think they have done remodelling recently. I slept through the night without any noises.  As for breakfast I think was really nice for a budget hotel. In the afternoon I enjoyed the hotel indoor pool, the pool was really clean and relaxing. I really recommend this hotel if anyone wants to book a hotel in this area.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed in this place for 3 nights. The front desk clerk was very nice and friendly and she upgraded me to a suite, which was really nice.  As I have walked into my room I couldn't believe that everything looks new and clean, I think they have done remodelling recently. I slept through the night without any noises.  As for breakfast I think was really nice for a budget hotel. In the afternoon I enjoyed the hotel indoor pool, the pool was really clean and relaxing. I really recommend this hotel if anyone wants to book a hotel in this area.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r303270480-Comfort_Inn_Suites_West-Katy_Texas.html</t>
   </si>
   <si>
     <t>303270480</t>
   </si>
   <si>
-    <t>08/25/2015</t>
-  </si>
-  <si>
     <t>Fantastic Renovation</t>
   </si>
   <si>
     <t>I Stayed at this hotel last weekend with my family, the room was clean, with new furniture and paint,  bed was great and comfortable  breakfast was very good with lots of choices(specially for my kids), if you looking for indoor swimming pool this hotel have  the best, there are lots of good restaurants near this area. high speed internet connection, I would stay again here again.MoreShow less</t>
   </si>
   <si>
-    <t>August 2015</t>
-  </si>
-  <si>
     <t>I Stayed at this hotel last weekend with my family, the room was clean, with new furniture and paint,  bed was great and comfortable  breakfast was very good with lots of choices(specially for my kids), if you looking for indoor swimming pool this hotel have  the best, there are lots of good restaurants near this area. high speed internet connection, I would stay again here again.More</t>
   </si>
   <si>
@@ -599,12 +883,6 @@
     <t>Had to stay In hotel waiting to close on a house this hotel is older but comfortable enough. Best of all was the great internet connection for the kids. Good thing because the pool was indoors and way too cold to enjoy. Over all good stay. Cleaning could be better found food in fridge and a tiny spider on the bed but it is Texas so I guess that happens.MoreShow less</t>
   </si>
   <si>
-    <t>Guest R, Guest Relations Manager at Comfort Inn &amp; Suites West, responded to this reviewResponded November 4, 2015</t>
-  </si>
-  <si>
-    <t>Responded November 4, 2015</t>
-  </si>
-  <si>
     <t>Had to stay In hotel waiting to close on a house this hotel is older but comfortable enough. Best of all was the great internet connection for the kids. Good thing because the pool was indoors and way too cold to enjoy. Over all good stay. Cleaning could be better found food in fridge and a tiny spider on the bed but it is Texas so I guess that happens.More</t>
   </si>
   <si>
@@ -632,6 +910,45 @@
     <t>The internet did not work. The lady at desk said she called 2 days ago and they have not come to fix it yet. Pool was really cold. Hot tub was in a weird little outside room with 10 foot walls with no roof that could only be accessed from the pool room. An electric plug in our room did not have a cover on it. "Picture below" The hotel was fairly clean but needs some updates &amp; maintenance. Lady at the front desk was not well versed on checking people in and how the choice rewards program worked. There was a stain on the wall of who knows what. "Picture below"Beds were comfortable. The room was clean except the things mentioned above. The price was high for what you get. $125 a night.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r286421257-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>286421257</t>
+  </si>
+  <si>
+    <t>07/07/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GREAT!! </t>
+  </si>
+  <si>
+    <t>I enjoyed my stay at the Comfort Inn &amp; Suites!! The breakfast was hot and delicious, their staff are very friendly especially Kimberly and Jennifer, and I pleasantly enjoyed everything about his hotel. I'll be back soon to my home away from home!MoreShow less</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay at the Comfort Inn &amp; Suites!! The breakfast was hot and delicious, their staff are very friendly especially Kimberly and Jennifer, and I pleasantly enjoyed everything about his hotel. I'll be back soon to my home away from home!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r265952424-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>265952424</t>
+  </si>
+  <si>
+    <t>04/15/2015</t>
+  </si>
+  <si>
+    <t>Very Nice</t>
+  </si>
+  <si>
+    <t>This place was very nice.  The room was clean. The front desk clerk was very nice and friendly.  There was a gym, swimming pool, laundry service (a bit expensive) etc.  Parking was shared with the hotel next door and so if you came in late it was hard to find parking.  My husband said if we are back in Houston, he'd stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>This place was very nice.  The room was clean. The front desk clerk was very nice and friendly.  There was a gym, swimming pool, laundry service (a bit expensive) etc.  Parking was shared with the hotel next door and so if you came in late it was hard to find parking.  My husband said if we are back in Houston, he'd stay here again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r221063689-Comfort_Inn_Suites_West-Katy_Texas.html</t>
   </si>
   <si>
@@ -687,6 +1004,53 @@
   </si>
   <si>
     <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r195465216-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>195465216</t>
+  </si>
+  <si>
+    <t>02/26/2014</t>
+  </si>
+  <si>
+    <t>Bacterial Skin</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel on February 14, 2014 with the intention of having a romantic night with the fiancée in a Jacuzzi suite. I'm a local, so the Jacuzzi was my only reason to stay here. Imagine my horror when I flipped it on and the tub instantly filled up with thick, green, bacterial skin (photo attached). I tried draining it and running it a few more times, but the skin came out just as thick every time. I had to avert my eyes to avoid vomiting into the water. 
+I told the guy at the desk, and he said the manager would be in in the morning. The next morning, I asked for him, but the same guy at the desk said, "I talked to him, and everything will be taken care of." Imagine then how I felt to find the full charge of $172.50 on my credit card statement. 
+I called the hotel, but the manager wasn't in, so the clerk offered to transfer me to his voicemail. She couldn't figure it out and kept putting me back on hold until I finally just remained there. Having no other choice, I hung up and opted to send an e-mail to the "contact us" link on their web page. 
+A week and a half later, there's been no reply, not even an apology or a "we're looking into it." NOTHING. 
+If this is the service and quality you're...I stayed in this hotel on February 14, 2014 with the intention of having a romantic night with the fiancée in a Jacuzzi suite. I'm a local, so the Jacuzzi was my only reason to stay here. Imagine my horror when I flipped it on and the tub instantly filled up with thick, green, bacterial skin (photo attached). I tried draining it and running it a few more times, but the skin came out just as thick every time. I had to avert my eyes to avoid vomiting into the water. I told the guy at the desk, and he said the manager would be in in the morning. The next morning, I asked for him, but the same guy at the desk said, "I talked to him, and everything will be taken care of." Imagine then how I felt to find the full charge of $172.50 on my credit card statement. I called the hotel, but the manager wasn't in, so the clerk offered to transfer me to his voicemail. She couldn't figure it out and kept putting me back on hold until I finally just remained there. Having no other choice, I hung up and opted to send an e-mail to the "contact us" link on their web page. A week and a half later, there's been no reply, not even an apology or a "we're looking into it." NOTHING. If this is the service and quality you're expecting from a hotel, then this might be the place for you. For my part, I feel like I've been completely ripped off.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel on February 14, 2014 with the intention of having a romantic night with the fiancée in a Jacuzzi suite. I'm a local, so the Jacuzzi was my only reason to stay here. Imagine my horror when I flipped it on and the tub instantly filled up with thick, green, bacterial skin (photo attached). I tried draining it and running it a few more times, but the skin came out just as thick every time. I had to avert my eyes to avoid vomiting into the water. 
+I told the guy at the desk, and he said the manager would be in in the morning. The next morning, I asked for him, but the same guy at the desk said, "I talked to him, and everything will be taken care of." Imagine then how I felt to find the full charge of $172.50 on my credit card statement. 
+I called the hotel, but the manager wasn't in, so the clerk offered to transfer me to his voicemail. She couldn't figure it out and kept putting me back on hold until I finally just remained there. Having no other choice, I hung up and opted to send an e-mail to the "contact us" link on their web page. 
+A week and a half later, there's been no reply, not even an apology or a "we're looking into it." NOTHING. 
+If this is the service and quality you're...I stayed in this hotel on February 14, 2014 with the intention of having a romantic night with the fiancée in a Jacuzzi suite. I'm a local, so the Jacuzzi was my only reason to stay here. Imagine my horror when I flipped it on and the tub instantly filled up with thick, green, bacterial skin (photo attached). I tried draining it and running it a few more times, but the skin came out just as thick every time. I had to avert my eyes to avoid vomiting into the water. I told the guy at the desk, and he said the manager would be in in the morning. The next morning, I asked for him, but the same guy at the desk said, "I talked to him, and everything will be taken care of." Imagine then how I felt to find the full charge of $172.50 on my credit card statement. I called the hotel, but the manager wasn't in, so the clerk offered to transfer me to his voicemail. She couldn't figure it out and kept putting me back on hold until I finally just remained there. Having no other choice, I hung up and opted to send an e-mail to the "contact us" link on their web page. A week and a half later, there's been no reply, not even an apology or a "we're looking into it." NOTHING. If this is the service and quality you're expecting from a hotel, then this might be the place for you. For my part, I feel like I've been completely ripped off.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r190096570-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>190096570</t>
+  </si>
+  <si>
+    <t>01/07/2014</t>
+  </si>
+  <si>
+    <t>Very nice hotel and location..............</t>
+  </si>
+  <si>
+    <t>I stayed just 2 nights at this hotel but was impressed with the front desk, room size and breakfast selection.  The rooms could use an update and deep cleaning.  Front desk was helpful when approached for directions or recommendations of local restaurants.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r186023157-Comfort_Inn_Suites_West-Katy_Texas.html</t>
@@ -745,6 +1109,39 @@
 I thought okay, it was a mistake. But then we had to change rooms the first night because our tub didn't drain until the next morning, a loud banging/creaking noise in the next room ( front desk said they heard it downstairs too) and sticky carpets. changed rooms and there were sticky carpets. I'm guessing all the rooms are like that. So after the second night I decided to check out early and stay with another family member over 30 minutes away rather than pay for this. Got a call about an hour after I left.  Front desk said he was double checking that I checked out with him (which I did,  I complained about the $154 charge,  which he and another lady said the computer must have done it and they don't know why they would happen). I asked if there was a problem and he said no,...Needed a hotel close to a family member that was a little more than the bare minimum so I went with this one.  The outside looked okay and the lobby is nice too.  The front desk clerks were nice enough but obviously didn't know what they were doing.  I was told that my card would have a $50 hold on it for incidentals (in case we take anything etc.) Well instead of just charging me the 3 nights and the $50, I was charged $309 and $154 ($50 incidental each night)!I thought okay, it was a mistake. But then we had to change rooms the first night because our tub didn't drain until the next morning, a loud banging/creaking noise in the next room ( front desk said they heard it downstairs too) and sticky carpets. changed rooms and there were sticky carpets. I'm guessing all the rooms are like that. So after the second night I decided to check out early and stay with another family member over 30 minutes away rather than pay for this. Got a call about an hour after I left.  Front desk said he was double checking that I checked out with him (which I did,  I complained about the $154 charge,  which he and another lady said the computer must have done it and they don't know why they would happen). I asked if there was a problem and he said no,  it was on his end. A few hours later, I see not only the same charge for the 3 nights instead of only 2, and the $154 over charge for the incidental, I see a SECOND charge of $154!!! I was charged more for incidentals than the actually room for 3 nights! My husband called and he said they were rude and just said the hold would be released in a few business days. And that there was nothing they could do. Since this happened yesterday,  we are just waiting to see if it clears.  More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r169432186-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>169432186</t>
+  </si>
+  <si>
+    <t>07/28/2013</t>
+  </si>
+  <si>
+    <t>Overall Nice Place to Stay</t>
+  </si>
+  <si>
+    <t>Overall, my stay here at the Comfort Inn was a good one.  Room was clean, beds were comfortable.  Breakfast was as expected.  Pool area was humid being that it was indoors and no a/c was running.  Hot tub area was a little dangerous with its steps.  One of our girls tripped and entire toe nail completely ripped off.  Not going to blame the hot tub area.  Just make sure you are careful.  Only other real complaint was that carpet in my room was sticky.  Other than that, overall, it was a nice place to drop in and stay for a night or two.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r157111972-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>157111972</t>
+  </si>
+  <si>
+    <t>04/08/2013</t>
+  </si>
+  <si>
+    <t>Great Location &amp; Room, Terrible Breakfast</t>
+  </si>
+  <si>
+    <t>The location of the hotel is so convenient to anything in Katy, especially Katy Mills. The room we had was so clean and comfortable. The colors are so modern and relaxing. However, the complimentary breakfast isn't worth it. "Just add water" seemed like the instructions on how the 'cooked' food offered was made. We were thankful for the yogurt and pastries that were provided.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r144613422-Comfort_Inn_Suites_West-Katy_Texas.html</t>
   </si>
   <si>
@@ -796,6 +1193,39 @@
     <t>My husband and I stayed at this Comfort Inn for one week while visiting our daughter, who had moved to Katy just two months before our visit. The front desk receptionist, Nancy, was so helpful. The staff was always ready to help if needed. Good size pool and hot tub. The king-size bed was extremely comfortable. When visiting Katy again, we will definitely stay here.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r143437325-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>143437325</t>
+  </si>
+  <si>
+    <t>10/22/2012</t>
+  </si>
+  <si>
+    <t>Good Hotel, for a quick stay</t>
+  </si>
+  <si>
+    <t>We stayed at the Comfort Inn while in town for a funeral.  It is a nice place to stay if you are just in town for a night or two.  The rooms were a nice size, and clean.  The bed was comfortable.  The staff was very helpful at check-in.  They serve a free breakfast that includes, waffles, sausage, eggs, bagels, pastries, oatmeal, coffee, and juice.  My only complaint is that the A/C did not get cold enough for me.  I like it to be very chilli while sleeping, and I had to get up several times during the night, to try and adjust it to make it colder.  All in all it is a good place to stay for a night or two, but if I was going to stay any longer than two nights, I would recommend staying somewhere a little nicer.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at the Comfort Inn while in town for a funeral.  It is a nice place to stay if you are just in town for a night or two.  The rooms were a nice size, and clean.  The bed was comfortable.  The staff was very helpful at check-in.  They serve a free breakfast that includes, waffles, sausage, eggs, bagels, pastries, oatmeal, coffee, and juice.  My only complaint is that the A/C did not get cold enough for me.  I like it to be very chilli while sleeping, and I had to get up several times during the night, to try and adjust it to make it colder.  All in all it is a good place to stay for a night or two, but if I was going to stay any longer than two nights, I would recommend staying somewhere a little nicer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r143167767-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>143167767</t>
+  </si>
+  <si>
+    <t>10/18/2012</t>
+  </si>
+  <si>
+    <t>Decent place to stay for business traveler</t>
+  </si>
+  <si>
+    <t>This room seemed average fair. It was clean and had the aspects I wanted. The worst part was the wireless internet access it was very slow and is an important aspect to me. It wouldn't bother me to stay here again, but it didn't inspire me to be a repeat customer and would probably look check out another place if I were in the area again.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r140647567-Comfort_Inn_Suites_West-Katy_Texas.html</t>
   </si>
   <si>
@@ -850,6 +1280,39 @@
     <t>Was traveling in Texas. We decided to stay at this Comfort Inn because it was convenient to Interstate 10W in Katy. If you like being able to check your email, browse the internet, etc. with your electronic device then don't stay here.  We had a room middle way down the hall from the reception desk.  We were unable to get access to the WI FI in the room during our stay.  We had to go down the hall to the reception area and sit there to use the Internet.  The manager told us they knew it was a problem with the rooms further down the hall from us but they didn't know our room was affected.  He offered to change our room but we had already unpacked our luggage/cooler and didn't like the inconvenience of repacking and moving. Also, the shower tile had obvious mold in the grout.  Not a good experience for us. We were disappointed.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r130554523-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>130554523</t>
+  </si>
+  <si>
+    <t>05/24/2012</t>
+  </si>
+  <si>
+    <t>Poor WiFi and mold in shower</t>
+  </si>
+  <si>
+    <t>Stayed one night while passing through on I-10. Hotel looked okay at first, but the tiled bathtub/shower wall had moldy grout. We could not get any WiFi service in our room and had to go sit in the lobby to check email. Desk clerk said the problem was our hardware, an Apple iPad 2 and an iPod Touch. Strange that neither have had a problem at any other hotel before. His only comment was, "Sorry about that. We've had complaints about that before."</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r129704535-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>129704535</t>
+  </si>
+  <si>
+    <t>05/10/2012</t>
+  </si>
+  <si>
+    <t>Great place to stay.</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel for 2 nights during the OTC convention. I had a great stay, the rooms are nice and clean, breakfast was a plus. The hotel staff was great. I do recommend this hotel 100% and look forward to coming back next year for the OTC and this will be my place to stay.</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r120614890-Comfort_Inn_Suites_West-Katy_Texas.html</t>
   </si>
   <si>
@@ -910,6 +1373,39 @@
     <t>My husband and I (along with four friends) had the opportunity to stay in this hotel during the National Senior Games competition in Houston/Katy in mid June 2011.  The location was excellent for us, as his competitions were located in Katy and Fulshear; meanwhile, it was a very easy drive into downtown Houston and the museum district for me.  Our room was clean and comfortable and had free high-speed wireless Internet access.  The continental breakfast was good, with numerous selections.  Those reasons alone would be enough for me to stay there again.  The real clincher, though, is the staff.  Everyone we me while we were there was knowledgeable, friendly, courteous.  Customer service is top notch.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r89868005-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>89868005</t>
+  </si>
+  <si>
+    <t>12/14/2010</t>
+  </si>
+  <si>
+    <t>Staff very accommodating and helpful</t>
+  </si>
+  <si>
+    <t>Hot tub out of order, made arrangements for me to use the hot tub an neighboring hotel.</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r86450967-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>86450967</t>
+  </si>
+  <si>
+    <t>11/08/2010</t>
+  </si>
+  <si>
+    <t>The hotel has everything you need.  Stephanie is so nice that she made us want to stay and come back!</t>
+  </si>
+  <si>
+    <t>I could live here</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r81405676-Comfort_Inn_Suites_West-Katy_Texas.html</t>
   </si>
   <si>
@@ -970,6 +1466,48 @@
     <t>I have been staying at this hotel for several years and have had the same quality service each and every time.The front desk goes out of their way to help you with anything they possiably can. The staff are friendly and helpful to your needs.The breakfast choices are very good, the food is hot / cold and plentiful.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r76344603-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>76344603</t>
+  </si>
+  <si>
+    <t>08/22/2010</t>
+  </si>
+  <si>
+    <t>Great Experience</t>
+  </si>
+  <si>
+    <t>at checkin I was greated by the most friendly worker. She was so sweet and helpful she not only got us info on a great restaurant but also gave us a coupon. She also went to their business center to print me out directions to a dealership I was going to as well as printed me out local movie listings and times. I think she went above and beyond her job and didnt mind at all. Got into the room and had a great night's sleep, their beds are a little piece of heaven (wish my bed at home was that nice!) Really liked their indoor pool and enjoyed the breakfast before we checked out the next day. Would have liked if they had movies to rent or movie channels in the rooms but overall was really enjoyable.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>at checkin I was greated by the most friendly worker. She was so sweet and helpful she not only got us info on a great restaurant but also gave us a coupon. She also went to their business center to print me out directions to a dealership I was going to as well as printed me out local movie listings and times. I think she went above and beyond her job and didnt mind at all. Got into the room and had a great night's sleep, their beds are a little piece of heaven (wish my bed at home was that nice!) Really liked their indoor pool and enjoyed the breakfast before we checked out the next day. Would have liked if they had movies to rent or movie channels in the rooms but overall was really enjoyable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r70171521-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>70171521</t>
+  </si>
+  <si>
+    <t>07/08/2010</t>
+  </si>
+  <si>
+    <t>Great Customer Service</t>
+  </si>
+  <si>
+    <t>Our experience at this hotel was great!  The young girls at the front desk were so helpful and friendly. The beds were very comfortable and the hotel itself was very nice.  The only thing I would suggest, would be to upgrade breakfast to a hot meal including meat and eggs but for a continental one it was a nice variety anyway. I first wanted a standard room but after inquiring about their jacquzzi suite and seeing the size of the spa in there and the layout I quickly changed my mind! Me and my husband really enjoyed our stay and will definatly come back next time we come to town.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>Our experience at this hotel was great!  The young girls at the front desk were so helpful and friendly. The beds were very comfortable and the hotel itself was very nice.  The only thing I would suggest, would be to upgrade breakfast to a hot meal including meat and eggs but for a continental one it was a nice variety anyway. I first wanted a standard room but after inquiring about their jacquzzi suite and seeing the size of the spa in there and the layout I quickly changed my mind! Me and my husband really enjoyed our stay and will definatly come back next time we come to town.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r69101337-Comfort_Inn_Suites_West-Katy_Texas.html</t>
   </si>
   <si>
@@ -1030,6 +1568,48 @@
     <t>This is not a smoke free Hotel.  The west hallways reeked with cigarette smoke.  When booking my reservation I was told it was smoke free.  I left early due to the cigarette smoke.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r20047373-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>20047373</t>
+  </si>
+  <si>
+    <t>09/13/2008</t>
+  </si>
+  <si>
+    <t>Our stay during Hurricane Ike</t>
+  </si>
+  <si>
+    <t>We evacuated from League City to Katy and stayed at this hotel.  The staff was great!  There was only one person, a male staff member - I think he was of arabic decent - he was very rude and told a customer off in from of my son and me in the lobby area.  During the grim part of the storm, this staff member was not patient.  He flew off the handle almost every 10 minutes.  We were without power through the night and into the early morning hours.  During this whole time, the other staff members were awesome!  He was not. Another issue is the doors for each room, they slam hard as they are closing!  Imagine 80 doors slamming at all hours of the night!  It's not a peaceful sound when you are trying to sleep. Alot of customers had pets with them in their rooms barking, I called the front desk, they admitted that they don't allow pets but they wouldn't confront the customers who had the pets.  All in all, great place to stay but some of the staff needs to be trained on customer services even in a stressful situation.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2008</t>
+  </si>
+  <si>
+    <t>We evacuated from League City to Katy and stayed at this hotel.  The staff was great!  There was only one person, a male staff member - I think he was of arabic decent - he was very rude and told a customer off in from of my son and me in the lobby area.  During the grim part of the storm, this staff member was not patient.  He flew off the handle almost every 10 minutes.  We were without power through the night and into the early morning hours.  During this whole time, the other staff members were awesome!  He was not. Another issue is the doors for each room, they slam hard as they are closing!  Imagine 80 doors slamming at all hours of the night!  It's not a peaceful sound when you are trying to sleep. Alot of customers had pets with them in their rooms barking, I called the front desk, they admitted that they don't allow pets but they wouldn't confront the customers who had the pets.  All in all, great place to stay but some of the staff needs to be trained on customer services even in a stressful situation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r18399605-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>18399605</t>
+  </si>
+  <si>
+    <t>07/29/2008</t>
+  </si>
+  <si>
+    <t>Good Stay!</t>
+  </si>
+  <si>
+    <t>If I had read some of these reviews first, we would have not stayed at this hotel.  However we (my husband, grandson and I)  after a day of shopping at Katy Mills Mall decided to stay another night in Katy and had already checked out of another Hotel and stopped here.  Our experience was rather a good one.  The girl that checked us in was so helpful and personable.  Our room was very clean (I carry a can of Lysol with us so that should tell you how picky I am).  The first thing I always do is rip the outward spread off and to the corner it goes and check the sheets.  Then the bathroom gets checked.  The carpet I walked on with bare feet and they were still clean, to my surprise.  That's a test that almost never is passed.  We used the inside pool which seemed cleaned and well cared for.  We were told we could use the outdoor pool at the Hampton Inn next door too as it had the same owner.  Lots of good coffee, cereal, pasteries and fresh fruit the next morning.  Our experience was a good one and we will stay there again.  Maybe after the smoke and blood incident someone got in gear and cleaned house.....I probably would never travel again had that happened to us as paranoid as I am.  I should own stock in the maker of Lysol...Hope this helps.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2008</t>
+  </si>
+  <si>
+    <t>If I had read some of these reviews first, we would have not stayed at this hotel.  However we (my husband, grandson and I)  after a day of shopping at Katy Mills Mall decided to stay another night in Katy and had already checked out of another Hotel and stopped here.  Our experience was rather a good one.  The girl that checked us in was so helpful and personable.  Our room was very clean (I carry a can of Lysol with us so that should tell you how picky I am).  The first thing I always do is rip the outward spread off and to the corner it goes and check the sheets.  Then the bathroom gets checked.  The carpet I walked on with bare feet and they were still clean, to my surprise.  That's a test that almost never is passed.  We used the inside pool which seemed cleaned and well cared for.  We were told we could use the outdoor pool at the Hampton Inn next door too as it had the same owner.  Lots of good coffee, cereal, pasteries and fresh fruit the next morning.  Our experience was a good one and we will stay there again.  Maybe after the smoke and blood incident someone got in gear and cleaned house.....I probably would never travel again had that happened to us as paranoid as I am.  I should own stock in the maker of Lysol...Hope this helps.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r17093112-Comfort_Inn_Suites_West-Katy_Texas.html</t>
   </si>
   <si>
@@ -1078,6 +1658,30 @@
     <t>January 2008</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r11022694-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>11022694</t>
+  </si>
+  <si>
+    <t>11/24/2007</t>
+  </si>
+  <si>
+    <t>November 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r5822841-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>5822841</t>
+  </si>
+  <si>
+    <t>09/20/2006</t>
+  </si>
+  <si>
+    <t>July 2006</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r5457743-Comfort_Inn_Suites_West-Katy_Texas.html</t>
   </si>
   <si>
@@ -1103,6 +1707,24 @@
   </si>
   <si>
     <t>05/28/2005</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r3163013-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>3163013</t>
+  </si>
+  <si>
+    <t>02/03/2005</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d124461-r1729783-Comfort_Inn_Suites_West-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>1729783</t>
+  </si>
+  <si>
+    <t>03/17/2004</t>
   </si>
 </sst>
 </file>
@@ -1637,7 +2259,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1694,7 +2316,7 @@
         <v>58</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N3" t="s">
         <v>59</v>
@@ -1704,15 +2326,13 @@
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>5</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -1757,7 +2377,7 @@
         <v>65</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N4" t="s">
         <v>59</v>
@@ -1765,18 +2385,12 @@
       <c r="O4" t="s">
         <v>66</v>
       </c>
-      <c r="P4" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>1</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
@@ -1820,16 +2434,18 @@
         <v>71</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
         <v>72</v>
       </c>
       <c r="O5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
       <c r="R5" t="s"/>
       <c r="S5" t="n">
         <v>5</v>
@@ -1881,25 +2497,25 @@
         <v>77</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" t="s">
         <v>78</v>
       </c>
-      <c r="O6" t="s">
-        <v>79</v>
-      </c>
-      <c r="P6" t="s"/>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
       <c r="Q6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R6" t="s"/>
-      <c r="S6" t="n">
-        <v>5</v>
-      </c>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1923,41 +2539,47 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
         <v>80</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>81</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>82</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>83</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
         <v>84</v>
       </c>
-      <c r="M7" t="n">
-        <v>3</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>78</v>
       </c>
-      <c r="O7" t="s">
-        <v>79</v>
-      </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
       <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
@@ -2001,37 +2623,33 @@
         <v>90</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N8" t="s">
         <v>91</v>
       </c>
       <c r="O8" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
-        <v>4</v>
-      </c>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S8" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
         <v>92</v>
-      </c>
-      <c r="X8" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="9">
@@ -2047,38 +2665,36 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
         <v>95</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>96</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>97</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
         <v>98</v>
       </c>
-      <c r="L9" t="s">
-        <v>99</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>100</v>
-      </c>
       <c r="O9" t="s">
-        <v>53</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="n">
@@ -2091,14 +2707,10 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>92</v>
-      </c>
-      <c r="X9" t="s">
-        <v>93</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
@@ -2114,42 +2726,42 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" t="s">
         <v>102</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="L10" t="s">
         <v>103</v>
       </c>
-      <c r="J10" t="s">
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>104</v>
       </c>
-      <c r="K10" t="s">
-        <v>105</v>
-      </c>
-      <c r="L10" t="s">
-        <v>106</v>
-      </c>
-      <c r="M10" t="n">
-        <v>4</v>
-      </c>
-      <c r="N10" t="s">
-        <v>107</v>
-      </c>
       <c r="O10" t="s">
-        <v>66</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q10" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
       <c r="R10" t="s"/>
       <c r="S10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
@@ -2158,14 +2770,10 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
-        <v>108</v>
-      </c>
-      <c r="X10" t="s">
-        <v>109</v>
-      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11">
@@ -2181,7 +2789,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2190,47 +2798,39 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="J11" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="K11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="L11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="O11" t="s">
-        <v>66</v>
-      </c>
-      <c r="P11" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>4</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>117</v>
-      </c>
-      <c r="X11" t="s">
-        <v>118</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
@@ -2246,7 +2846,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2255,22 +2855,26 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="J12" t="s">
         <v>113</v>
       </c>
       <c r="K12" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="L12" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
-      </c>
-      <c r="N12" t="s"/>
-      <c r="O12" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>104</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
@@ -2280,14 +2884,10 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>117</v>
-      </c>
-      <c r="X12" t="s">
-        <v>118</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13">
@@ -2303,7 +2903,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2312,49 +2912,39 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="J13" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="K13" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="L13" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="O13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
-      <c r="S13" t="n">
-        <v>3</v>
-      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>1</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
-        <v>131</v>
-      </c>
-      <c r="X13" t="s">
-        <v>132</v>
-      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
@@ -2370,7 +2960,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2379,49 +2969,49 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="J14" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="K14" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="L14" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O14" t="s">
-        <v>79</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
       <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="X14" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="Y14" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15">
@@ -2437,7 +3027,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2446,30 +3036,30 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="J15" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="K15" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="L15" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="O15" t="s">
         <v>66</v>
       </c>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="n">
-        <v>5</v>
-      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
       <c r="S15" t="n">
         <v>5</v>
@@ -2482,13 +3072,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="X15" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="Y15" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16">
@@ -2504,7 +3094,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2513,39 +3103,49 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="J16" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="K16" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="L16" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s"/>
-      <c r="O16" t="s"/>
-      <c r="P16" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>143</v>
+      </c>
+      <c r="O16" t="s">
+        <v>78</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="X16" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="Y16" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17">
@@ -2561,7 +3161,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2570,22 +3170,26 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="J17" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="K17" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="L17" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N17" t="s"/>
-      <c r="O17" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>152</v>
+      </c>
+      <c r="O17" t="s">
+        <v>66</v>
+      </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
@@ -2596,13 +3200,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="X17" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="Y17" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18">
@@ -2618,7 +3222,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2627,31 +3231,31 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="J18" t="s">
+        <v>158</v>
+      </c>
+      <c r="K18" t="s">
+        <v>159</v>
+      </c>
+      <c r="L18" t="s">
         <v>160</v>
       </c>
-      <c r="K18" t="s">
-        <v>168</v>
-      </c>
-      <c r="L18" t="s">
-        <v>169</v>
-      </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="O18" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="P18" t="s"/>
-      <c r="Q18" t="n">
-        <v>5</v>
-      </c>
-      <c r="R18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
       <c r="S18" t="n">
         <v>5</v>
       </c>
@@ -2663,13 +3267,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="X18" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="Y18" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19">
@@ -2685,7 +3289,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2694,47 +3298,47 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="J19" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="K19" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="L19" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
-      </c>
-      <c r="P19" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
       <c r="Q19" t="s"/>
-      <c r="R19" t="n">
-        <v>5</v>
-      </c>
+      <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="X19" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="Y19" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20">
@@ -2750,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2759,47 +3363,39 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="J20" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="K20" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="L20" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" t="s">
-        <v>184</v>
-      </c>
-      <c r="O20" t="s">
-        <v>79</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
       <c r="P20" t="s"/>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="X20" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="Y20" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21">
@@ -2815,7 +3411,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2824,43 +3420,49 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="J21" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="K21" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="L21" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>181</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
         <v>3</v>
       </c>
-      <c r="N21" t="s">
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>182</v>
+      </c>
+      <c r="X21" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y21" t="s">
         <v>184</v>
-      </c>
-      <c r="O21" t="s">
-        <v>79</v>
-      </c>
-      <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
-      <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="s">
-        <v>191</v>
-      </c>
-      <c r="X21" t="s">
-        <v>192</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="22">
@@ -2876,7 +3478,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2885,43 +3487,49 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="J22" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="K22" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="L22" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c r="O22" t="s">
-        <v>66</v>
-      </c>
-      <c r="P22" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
       <c r="Q22" t="s"/>
-      <c r="R22" t="s"/>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="X22" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="Y22" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23">
@@ -2937,7 +3545,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2946,45 +3554,49 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="J23" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="K23" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="L23" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
-      </c>
-      <c r="P23" t="n">
-        <v>5</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
-      <c r="R23" t="s"/>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
       <c r="S23" t="n">
         <v>5</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>199</v>
+      </c>
+      <c r="X23" t="s">
+        <v>200</v>
+      </c>
       <c r="Y23" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24">
@@ -3000,7 +3612,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3009,22 +3621,22 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="J24" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="K24" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="L24" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="O24" t="s">
         <v>53</v>
@@ -3033,25 +3645,25 @@
         <v>3</v>
       </c>
       <c r="Q24" t="n">
-        <v>3</v>
-      </c>
-      <c r="R24" t="n">
-        <v>4</v>
-      </c>
-      <c r="S24" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>199</v>
+      </c>
+      <c r="X24" t="s">
+        <v>200</v>
+      </c>
       <c r="Y24" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25">
@@ -3067,48 +3679,58 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
+        <v>208</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>209</v>
+      </c>
+      <c r="J25" t="s">
+        <v>210</v>
+      </c>
+      <c r="K25" t="s">
+        <v>211</v>
+      </c>
+      <c r="L25" t="s">
+        <v>212</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>181</v>
+      </c>
+      <c r="O25" t="s">
+        <v>78</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>213</v>
+      </c>
+      <c r="X25" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y25" t="s">
         <v>215</v>
-      </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" t="s">
-        <v>216</v>
-      </c>
-      <c r="J25" t="s">
-        <v>217</v>
-      </c>
-      <c r="K25" t="s">
-        <v>218</v>
-      </c>
-      <c r="L25" t="s">
-        <v>219</v>
-      </c>
-      <c r="M25" t="n">
-        <v>5</v>
-      </c>
-      <c r="N25" t="s">
-        <v>220</v>
-      </c>
-      <c r="O25" t="s">
-        <v>79</v>
-      </c>
-      <c r="P25" t="s"/>
-      <c r="Q25" t="s"/>
-      <c r="R25" t="s"/>
-      <c r="S25" t="s"/>
-      <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
-      <c r="Y25" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="26">
@@ -3124,58 +3746,48 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
+        <v>216</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>217</v>
+      </c>
+      <c r="J26" t="s">
+        <v>218</v>
+      </c>
+      <c r="K26" t="s">
+        <v>219</v>
+      </c>
+      <c r="L26" t="s">
+        <v>220</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
         <v>221</v>
       </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="X26" t="s">
         <v>222</v>
       </c>
-      <c r="J26" t="s">
+      <c r="Y26" t="s">
         <v>223</v>
-      </c>
-      <c r="K26" t="s">
-        <v>224</v>
-      </c>
-      <c r="L26" t="s">
-        <v>225</v>
-      </c>
-      <c r="M26" t="n">
-        <v>2</v>
-      </c>
-      <c r="N26" t="s">
-        <v>226</v>
-      </c>
-      <c r="O26" t="s">
-        <v>66</v>
-      </c>
-      <c r="P26" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2</v>
-      </c>
-      <c r="R26" t="n">
-        <v>3</v>
-      </c>
-      <c r="S26" t="n">
-        <v>2</v>
-      </c>
-      <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>3</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
-      <c r="Y26" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="27">
@@ -3191,56 +3803,56 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
+        <v>224</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>225</v>
+      </c>
+      <c r="J27" t="s">
+        <v>226</v>
+      </c>
+      <c r="K27" t="s">
         <v>227</v>
       </c>
-      <c r="G27" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="L27" t="s">
         <v>228</v>
       </c>
-      <c r="J27" t="s">
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
         <v>229</v>
       </c>
-      <c r="K27" t="s">
-        <v>230</v>
-      </c>
-      <c r="L27" t="s">
-        <v>231</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="s">
-        <v>226</v>
-      </c>
       <c r="O27" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="P27" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1</v>
-      </c>
-      <c r="R27" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
       <c r="S27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>230</v>
+      </c>
+      <c r="X27" t="s">
+        <v>231</v>
+      </c>
       <c r="Y27" t="s">
         <v>232</v>
       </c>
@@ -3279,33 +3891,35 @@
         <v>237</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="s"/>
-      <c r="O28" t="s"/>
-      <c r="P28" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>238</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
       <c r="Q28" t="n">
-        <v>1</v>
-      </c>
-      <c r="R28" t="n">
-        <v>3</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
+      <c r="W28" t="s">
+        <v>239</v>
+      </c>
+      <c r="X28" t="s">
+        <v>240</v>
+      </c>
       <c r="Y28" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29">
@@ -3321,58 +3935,48 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>243</v>
+      </c>
+      <c r="J29" t="s">
+        <v>244</v>
+      </c>
+      <c r="K29" t="s">
+        <v>245</v>
+      </c>
+      <c r="L29" t="s">
+        <v>246</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
         <v>239</v>
       </c>
-      <c r="G29" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" t="s">
-        <v>47</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="X29" t="s">
         <v>240</v>
       </c>
-      <c r="J29" t="s">
-        <v>241</v>
-      </c>
-      <c r="K29" t="s">
-        <v>242</v>
-      </c>
-      <c r="L29" t="s">
-        <v>243</v>
-      </c>
-      <c r="M29" t="n">
-        <v>5</v>
-      </c>
-      <c r="N29" t="s">
-        <v>244</v>
-      </c>
-      <c r="O29" t="s">
-        <v>79</v>
-      </c>
-      <c r="P29" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>5</v>
-      </c>
-      <c r="R29" t="n">
-        <v>5</v>
-      </c>
-      <c r="S29" t="n">
-        <v>5</v>
-      </c>
-      <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>5</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30">
@@ -3388,7 +3992,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3397,31 +4001,31 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="J30" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K30" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L30" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
-      <c r="N30" t="s"/>
-      <c r="O30" t="s"/>
-      <c r="P30" t="n">
-        <v>5</v>
-      </c>
+      <c r="N30" t="s">
+        <v>252</v>
+      </c>
+      <c r="O30" t="s">
+        <v>78</v>
+      </c>
+      <c r="P30" t="s"/>
       <c r="Q30" t="n">
         <v>5</v>
       </c>
-      <c r="R30" t="n">
-        <v>5</v>
-      </c>
+      <c r="R30" t="s"/>
       <c r="S30" t="n">
         <v>5</v>
       </c>
@@ -3432,10 +4036,14 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>221</v>
+      </c>
+      <c r="X30" t="s">
+        <v>222</v>
+      </c>
       <c r="Y30" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31">
@@ -3451,7 +4059,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3460,38 +4068,32 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="J31" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="K31" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L31" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="O31" t="s">
-        <v>79</v>
-      </c>
-      <c r="P31" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>5</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
       <c r="R31" t="n">
         <v>5</v>
       </c>
-      <c r="S31" t="n">
-        <v>5</v>
-      </c>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
         <v>5</v>
@@ -3499,10 +4101,14 @@
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>221</v>
+      </c>
+      <c r="X31" t="s">
+        <v>222</v>
+      </c>
       <c r="Y31" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32">
@@ -3518,7 +4124,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3527,49 +4133,43 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="J32" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="K32" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="L32" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="O32" t="s">
-        <v>66</v>
-      </c>
-      <c r="P32" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>5</v>
-      </c>
-      <c r="R32" t="n">
-        <v>5</v>
-      </c>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>5</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
+      <c r="W32" t="s">
+        <v>221</v>
+      </c>
+      <c r="X32" t="s">
+        <v>222</v>
+      </c>
       <c r="Y32" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33">
@@ -3585,47 +4185,41 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
+        <v>268</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>269</v>
+      </c>
+      <c r="J33" t="s">
         <v>262</v>
       </c>
-      <c r="G33" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-      <c r="I33" t="s">
-        <v>263</v>
-      </c>
-      <c r="J33" t="s">
-        <v>264</v>
-      </c>
       <c r="K33" t="s">
+        <v>270</v>
+      </c>
+      <c r="L33" t="s">
+        <v>271</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
         <v>265</v>
       </c>
-      <c r="L33" t="s">
-        <v>266</v>
-      </c>
-      <c r="M33" t="n">
-        <v>5</v>
-      </c>
-      <c r="N33" t="s">
-        <v>261</v>
-      </c>
       <c r="O33" t="s">
-        <v>79</v>
-      </c>
-      <c r="P33" t="n">
-        <v>4</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P33" t="s"/>
       <c r="Q33" t="n">
         <v>5</v>
       </c>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
-      <c r="S33" t="n">
-        <v>5</v>
-      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
         <v>5</v>
@@ -3633,10 +4227,14 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>221</v>
+      </c>
+      <c r="X33" t="s">
+        <v>222</v>
+      </c>
       <c r="Y33" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="34">
@@ -3652,7 +4250,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3661,49 +4259,47 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="J34" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K34" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="L34" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="M34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="O34" t="s">
-        <v>79</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
       <c r="Q34" t="n">
-        <v>2</v>
-      </c>
-      <c r="R34" t="n">
-        <v>4</v>
-      </c>
-      <c r="S34" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
+      <c r="W34" t="s">
+        <v>221</v>
+      </c>
+      <c r="X34" t="s">
+        <v>222</v>
+      </c>
       <c r="Y34" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="35">
@@ -3719,7 +4315,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3728,49 +4324,43 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="J35" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="K35" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="L35" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="O35" t="s">
-        <v>60</v>
-      </c>
-      <c r="P35" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>2</v>
-      </c>
-      <c r="R35" t="n">
-        <v>4</v>
-      </c>
-      <c r="S35" t="n">
-        <v>2</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>3</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
+      <c r="W35" t="s">
+        <v>230</v>
+      </c>
+      <c r="X35" t="s">
+        <v>231</v>
+      </c>
       <c r="Y35" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="36">
@@ -3786,7 +4376,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3795,45 +4385,43 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="J36" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="K36" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="L36" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="O36" t="s">
-        <v>79</v>
-      </c>
-      <c r="P36" t="n">
-        <v>5</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
-      <c r="S36" t="n">
-        <v>5</v>
-      </c>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>5</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
+      <c r="W36" t="s">
+        <v>290</v>
+      </c>
+      <c r="X36" t="s">
+        <v>240</v>
+      </c>
       <c r="Y36" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="37">
@@ -3849,7 +4437,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -3858,45 +4446,43 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
+        <v>293</v>
+      </c>
+      <c r="J37" t="s">
+        <v>294</v>
+      </c>
+      <c r="K37" t="s">
+        <v>295</v>
+      </c>
+      <c r="L37" t="s">
+        <v>296</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
         <v>289</v>
       </c>
-      <c r="J37" t="s">
-        <v>290</v>
-      </c>
-      <c r="K37" t="s">
-        <v>291</v>
-      </c>
-      <c r="L37" t="s">
-        <v>292</v>
-      </c>
-      <c r="M37" t="n">
-        <v>5</v>
-      </c>
-      <c r="N37" t="s">
-        <v>286</v>
-      </c>
       <c r="O37" t="s">
-        <v>79</v>
-      </c>
-      <c r="P37" t="n">
-        <v>5</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
       <c r="R37" t="s"/>
-      <c r="S37" t="n">
-        <v>5</v>
-      </c>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>5</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>230</v>
+      </c>
+      <c r="X37" t="s">
+        <v>231</v>
+      </c>
       <c r="Y37" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="38">
@@ -3912,7 +4498,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -3921,35 +4507,31 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="J38" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="K38" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="L38" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="O38" t="s">
-        <v>66</v>
-      </c>
-      <c r="P38" t="n">
-        <v>4</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="P38" t="s"/>
       <c r="Q38" t="n">
         <v>5</v>
       </c>
-      <c r="R38" t="n">
-        <v>5</v>
-      </c>
+      <c r="R38" t="s"/>
       <c r="S38" t="n">
         <v>5</v>
       </c>
@@ -3961,13 +4543,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="X38" t="s">
-        <v>301</v>
+        <v>231</v>
       </c>
       <c r="Y38" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39">
@@ -3983,7 +4565,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -3992,22 +4574,22 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="J39" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="K39" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="L39" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="O39" t="s">
         <v>66</v>
@@ -4015,12 +4597,8 @@
       <c r="P39" t="n">
         <v>5</v>
       </c>
-      <c r="Q39" t="n">
-        <v>5</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
       <c r="S39" t="n">
         <v>5</v>
       </c>
@@ -4031,14 +4609,10 @@
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s">
-        <v>300</v>
-      </c>
-      <c r="X39" t="s">
-        <v>301</v>
-      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="40">
@@ -4054,7 +4628,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4063,53 +4637,49 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="J40" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="K40" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="L40" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="O40" t="s">
         <v>66</v>
       </c>
       <c r="P40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R40" t="n">
         <v>4</v>
       </c>
       <c r="S40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s">
-        <v>300</v>
-      </c>
-      <c r="X40" t="s">
-        <v>301</v>
-      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="41">
@@ -4125,7 +4695,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4134,53 +4704,39 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="J41" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="K41" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="L41" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="O41" t="s">
-        <v>79</v>
-      </c>
-      <c r="P41" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>4</v>
-      </c>
-      <c r="R41" t="n">
-        <v>5</v>
-      </c>
-      <c r="S41" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="n">
-        <v>5</v>
-      </c>
+      <c r="U41" t="s"/>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s">
-        <v>300</v>
-      </c>
-      <c r="X41" t="s">
-        <v>301</v>
-      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="42">
@@ -4196,7 +4752,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4205,53 +4761,53 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="J42" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="K42" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="L42" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="M42" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="O42" t="s">
         <v>66</v>
       </c>
       <c r="P42" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S42" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="X42" t="s">
-        <v>301</v>
+        <v>240</v>
       </c>
       <c r="Y42" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="43">
@@ -4267,7 +4823,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4276,53 +4832,49 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="J43" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="K43" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="L43" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="P43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s">
-        <v>300</v>
-      </c>
-      <c r="X43" t="s">
-        <v>301</v>
-      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="44">
@@ -4338,7 +4890,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4347,44 +4899,50 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="J44" t="s">
-        <v>336</v>
-      </c>
-      <c r="K44" t="s"/>
-      <c r="L44" t="s"/>
+        <v>339</v>
+      </c>
+      <c r="K44" t="s">
+        <v>340</v>
+      </c>
+      <c r="L44" t="s">
+        <v>341</v>
+      </c>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N44" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="O44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
-      <c r="Y44" t="s"/>
+      <c r="Y44" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4399,7 +4957,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4408,14 +4966,16 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="J45" t="s">
-        <v>340</v>
-      </c>
-      <c r="K45" t="s"/>
+        <v>345</v>
+      </c>
+      <c r="K45" t="s">
+        <v>346</v>
+      </c>
       <c r="L45" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="M45" t="n">
         <v>1</v>
@@ -4424,7 +4984,7 @@
         <v>342</v>
       </c>
       <c r="O45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P45" t="n">
         <v>1</v>
@@ -4445,14 +5005,10 @@
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s">
-        <v>343</v>
-      </c>
-      <c r="X45" t="s">
-        <v>344</v>
-      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="46">
@@ -4468,7 +5024,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4477,43 +5033,45 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="J46" t="s">
-        <v>348</v>
-      </c>
-      <c r="K46" t="s"/>
+        <v>351</v>
+      </c>
+      <c r="K46" t="s">
+        <v>352</v>
+      </c>
       <c r="L46" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
-      <c r="N46" t="s">
-        <v>349</v>
-      </c>
-      <c r="O46" t="s">
-        <v>79</v>
-      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
       <c r="P46" t="n">
         <v>1</v>
       </c>
-      <c r="Q46" t="s"/>
-      <c r="R46" t="s"/>
-      <c r="S46" t="s"/>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
       <c r="T46" t="s"/>
-      <c r="U46" t="s"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s">
-        <v>343</v>
-      </c>
-      <c r="X46" t="s">
-        <v>344</v>
-      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
     </row>
     <row r="47">
@@ -4529,7 +5087,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4538,30 +5096,46 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="J47" t="s">
-        <v>352</v>
-      </c>
-      <c r="K47" t="s"/>
-      <c r="L47" t="s"/>
+        <v>357</v>
+      </c>
+      <c r="K47" t="s">
+        <v>358</v>
+      </c>
+      <c r="L47" t="s">
+        <v>359</v>
+      </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s"/>
       <c r="O47" t="s"/>
-      <c r="P47" t="s"/>
-      <c r="Q47" t="s"/>
-      <c r="R47" t="s"/>
-      <c r="S47" t="s"/>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
       <c r="T47" t="s"/>
-      <c r="U47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
-      <c r="Y47" t="s"/>
+      <c r="Y47" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4576,7 +5150,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -4585,29 +5159,37 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="J48" t="s">
-        <v>355</v>
-      </c>
-      <c r="K48" t="s"/>
+        <v>362</v>
+      </c>
+      <c r="K48" t="s">
+        <v>363</v>
+      </c>
       <c r="L48" t="s">
-        <v>341</v>
+        <v>364</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
-      <c r="N48" t="s"/>
-      <c r="O48" t="s"/>
+      <c r="N48" t="s">
+        <v>365</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
       <c r="P48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q48" t="n">
-        <v>4</v>
-      </c>
-      <c r="R48" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
       <c r="S48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
@@ -4619,7 +5201,7 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
     </row>
     <row r="49">
@@ -4635,7 +5217,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -4644,33 +5226,41 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="J49" t="s">
-        <v>358</v>
-      </c>
-      <c r="K49" t="s"/>
+        <v>368</v>
+      </c>
+      <c r="K49" t="s">
+        <v>369</v>
+      </c>
       <c r="L49" t="s">
-        <v>341</v>
+        <v>370</v>
       </c>
       <c r="M49" t="n">
-        <v>4</v>
-      </c>
-      <c r="N49" t="s"/>
-      <c r="O49" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>371</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
       <c r="P49" t="n">
         <v>5</v>
       </c>
       <c r="Q49" t="n">
-        <v>4</v>
-      </c>
-      <c r="R49" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
       <c r="S49" t="n">
         <v>5</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
@@ -4678,7 +5268,2207 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>345</v>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>372</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>373</v>
+      </c>
+      <c r="J50" t="s">
+        <v>374</v>
+      </c>
+      <c r="K50" t="s">
+        <v>375</v>
+      </c>
+      <c r="L50" t="s">
+        <v>376</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>378</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>379</v>
+      </c>
+      <c r="J51" t="s">
+        <v>380</v>
+      </c>
+      <c r="K51" t="s">
+        <v>381</v>
+      </c>
+      <c r="L51" t="s">
+        <v>382</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>371</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>383</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>384</v>
+      </c>
+      <c r="J52" t="s">
+        <v>385</v>
+      </c>
+      <c r="K52" t="s">
+        <v>386</v>
+      </c>
+      <c r="L52" t="s">
+        <v>387</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>371</v>
+      </c>
+      <c r="O52" t="s">
+        <v>266</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>389</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>390</v>
+      </c>
+      <c r="J53" t="s">
+        <v>391</v>
+      </c>
+      <c r="K53" t="s">
+        <v>392</v>
+      </c>
+      <c r="L53" t="s">
+        <v>393</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>371</v>
+      </c>
+      <c r="O53" t="s">
+        <v>78</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>3</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>394</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>395</v>
+      </c>
+      <c r="J54" t="s">
+        <v>396</v>
+      </c>
+      <c r="K54" t="s">
+        <v>397</v>
+      </c>
+      <c r="L54" t="s">
+        <v>398</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>399</v>
+      </c>
+      <c r="O54" t="s">
+        <v>78</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>400</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>401</v>
+      </c>
+      <c r="J55" t="s">
+        <v>402</v>
+      </c>
+      <c r="K55" t="s">
+        <v>403</v>
+      </c>
+      <c r="L55" t="s">
+        <v>404</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>399</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>405</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>406</v>
+      </c>
+      <c r="J56" t="s">
+        <v>407</v>
+      </c>
+      <c r="K56" t="s">
+        <v>408</v>
+      </c>
+      <c r="L56" t="s">
+        <v>409</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s">
+        <v>410</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>2</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>2</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>412</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>413</v>
+      </c>
+      <c r="J57" t="s">
+        <v>414</v>
+      </c>
+      <c r="K57" t="s">
+        <v>415</v>
+      </c>
+      <c r="L57" t="s">
+        <v>416</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s">
+        <v>410</v>
+      </c>
+      <c r="O57" t="s">
+        <v>66</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>2</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>2</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>417</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>418</v>
+      </c>
+      <c r="J58" t="s">
+        <v>419</v>
+      </c>
+      <c r="K58" t="s">
+        <v>420</v>
+      </c>
+      <c r="L58" t="s">
+        <v>421</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>422</v>
+      </c>
+      <c r="O58" t="s">
+        <v>78</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>423</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>424</v>
+      </c>
+      <c r="J59" t="s">
+        <v>425</v>
+      </c>
+      <c r="K59" t="s">
+        <v>426</v>
+      </c>
+      <c r="L59" t="s">
+        <v>427</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>428</v>
+      </c>
+      <c r="O59" t="s">
+        <v>60</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>2</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>430</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>431</v>
+      </c>
+      <c r="J60" t="s">
+        <v>432</v>
+      </c>
+      <c r="K60" t="s">
+        <v>433</v>
+      </c>
+      <c r="L60" t="s">
+        <v>434</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>435</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>437</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>438</v>
+      </c>
+      <c r="J61" t="s">
+        <v>439</v>
+      </c>
+      <c r="K61" t="s">
+        <v>440</v>
+      </c>
+      <c r="L61" t="s">
+        <v>441</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>435</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>443</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>444</v>
+      </c>
+      <c r="J62" t="s">
+        <v>445</v>
+      </c>
+      <c r="K62" t="s">
+        <v>446</v>
+      </c>
+      <c r="L62" t="s">
+        <v>447</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>448</v>
+      </c>
+      <c r="O62" t="s">
+        <v>66</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>449</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>450</v>
+      </c>
+      <c r="J63" t="s">
+        <v>451</v>
+      </c>
+      <c r="K63" t="s">
+        <v>452</v>
+      </c>
+      <c r="L63" t="s">
+        <v>453</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>454</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>455</v>
+      </c>
+      <c r="J64" t="s">
+        <v>456</v>
+      </c>
+      <c r="K64" t="s">
+        <v>457</v>
+      </c>
+      <c r="L64" t="s">
+        <v>458</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>459</v>
+      </c>
+      <c r="O64" t="s">
+        <v>78</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>460</v>
+      </c>
+      <c r="X64" t="s">
+        <v>461</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>463</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>464</v>
+      </c>
+      <c r="J65" t="s">
+        <v>456</v>
+      </c>
+      <c r="K65" t="s">
+        <v>465</v>
+      </c>
+      <c r="L65" t="s">
+        <v>466</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>467</v>
+      </c>
+      <c r="O65" t="s">
+        <v>78</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>460</v>
+      </c>
+      <c r="X65" t="s">
+        <v>461</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>469</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>470</v>
+      </c>
+      <c r="J66" t="s">
+        <v>456</v>
+      </c>
+      <c r="K66" t="s">
+        <v>471</v>
+      </c>
+      <c r="L66" t="s">
+        <v>472</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>467</v>
+      </c>
+      <c r="O66" t="s">
+        <v>78</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>460</v>
+      </c>
+      <c r="X66" t="s">
+        <v>461</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>474</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>475</v>
+      </c>
+      <c r="J67" t="s">
+        <v>476</v>
+      </c>
+      <c r="K67" t="s">
+        <v>477</v>
+      </c>
+      <c r="L67" t="s">
+        <v>478</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>479</v>
+      </c>
+      <c r="O67" t="s">
+        <v>66</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>481</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>482</v>
+      </c>
+      <c r="J68" t="s">
+        <v>483</v>
+      </c>
+      <c r="K68" t="s">
+        <v>484</v>
+      </c>
+      <c r="L68" t="s">
+        <v>485</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>486</v>
+      </c>
+      <c r="O68" t="s">
+        <v>66</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>460</v>
+      </c>
+      <c r="X68" t="s">
+        <v>461</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>488</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>489</v>
+      </c>
+      <c r="J69" t="s">
+        <v>490</v>
+      </c>
+      <c r="K69" t="s">
+        <v>491</v>
+      </c>
+      <c r="L69" t="s">
+        <v>492</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>493</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>460</v>
+      </c>
+      <c r="X69" t="s">
+        <v>461</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>495</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>496</v>
+      </c>
+      <c r="J70" t="s">
+        <v>497</v>
+      </c>
+      <c r="K70" t="s">
+        <v>498</v>
+      </c>
+      <c r="L70" t="s">
+        <v>499</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>493</v>
+      </c>
+      <c r="O70" t="s">
+        <v>78</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>460</v>
+      </c>
+      <c r="X70" t="s">
+        <v>461</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>501</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>502</v>
+      </c>
+      <c r="J71" t="s">
+        <v>503</v>
+      </c>
+      <c r="K71" t="s">
+        <v>504</v>
+      </c>
+      <c r="L71" t="s">
+        <v>505</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>506</v>
+      </c>
+      <c r="O71" t="s">
+        <v>66</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>460</v>
+      </c>
+      <c r="X71" t="s">
+        <v>461</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>508</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>509</v>
+      </c>
+      <c r="J72" t="s">
+        <v>510</v>
+      </c>
+      <c r="K72" t="s">
+        <v>511</v>
+      </c>
+      <c r="L72" t="s">
+        <v>512</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="s">
+        <v>513</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>2</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>1</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>515</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>516</v>
+      </c>
+      <c r="J73" t="s">
+        <v>517</v>
+      </c>
+      <c r="K73" t="s">
+        <v>518</v>
+      </c>
+      <c r="L73" t="s">
+        <v>519</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>520</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>3</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>522</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>523</v>
+      </c>
+      <c r="J74" t="s">
+        <v>524</v>
+      </c>
+      <c r="K74" t="s"/>
+      <c r="L74" t="s"/>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>525</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>526</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>527</v>
+      </c>
+      <c r="J75" t="s">
+        <v>528</v>
+      </c>
+      <c r="K75" t="s"/>
+      <c r="L75" t="s">
+        <v>529</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="s">
+        <v>530</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>1</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>1</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>1</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>531</v>
+      </c>
+      <c r="X75" t="s">
+        <v>532</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>534</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>535</v>
+      </c>
+      <c r="J76" t="s">
+        <v>536</v>
+      </c>
+      <c r="K76" t="s"/>
+      <c r="L76" t="s">
+        <v>529</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="s">
+        <v>537</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="s"/>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>531</v>
+      </c>
+      <c r="X76" t="s">
+        <v>532</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>538</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>539</v>
+      </c>
+      <c r="J77" t="s">
+        <v>540</v>
+      </c>
+      <c r="K77" t="s"/>
+      <c r="L77" t="s"/>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>541</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>3</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>542</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>543</v>
+      </c>
+      <c r="J78" t="s">
+        <v>544</v>
+      </c>
+      <c r="K78" t="s"/>
+      <c r="L78" t="s">
+        <v>529</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>545</v>
+      </c>
+      <c r="O78" t="s">
+        <v>78</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>546</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>547</v>
+      </c>
+      <c r="J79" t="s">
+        <v>548</v>
+      </c>
+      <c r="K79" t="s"/>
+      <c r="L79" t="s"/>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s"/>
+      <c r="O79" t="s"/>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="s"/>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>549</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>550</v>
+      </c>
+      <c r="J80" t="s">
+        <v>551</v>
+      </c>
+      <c r="K80" t="s"/>
+      <c r="L80" t="s">
+        <v>529</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s"/>
+      <c r="O80" t="s"/>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="s"/>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>552</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>553</v>
+      </c>
+      <c r="J81" t="s">
+        <v>554</v>
+      </c>
+      <c r="K81" t="s"/>
+      <c r="L81" t="s">
+        <v>529</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s"/>
+      <c r="O81" t="s"/>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="s"/>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>555</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>556</v>
+      </c>
+      <c r="J82" t="s">
+        <v>557</v>
+      </c>
+      <c r="K82" t="s"/>
+      <c r="L82" t="s"/>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s"/>
+      <c r="O82" t="s"/>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="s"/>
+      <c r="T82" t="s"/>
+      <c r="U82" t="s"/>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>31708</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>558</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>559</v>
+      </c>
+      <c r="J83" t="s">
+        <v>560</v>
+      </c>
+      <c r="K83" t="s"/>
+      <c r="L83" t="s">
+        <v>529</v>
+      </c>
+      <c r="M83" t="n">
+        <v>2</v>
+      </c>
+      <c r="N83" t="s"/>
+      <c r="O83" t="s"/>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="s"/>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>533</v>
       </c>
     </row>
   </sheetData>
